--- a/Analisis/Servicios.xlsx
+++ b/Analisis/Servicios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gomado\Documents\F2M\Aquarius\Repositorio F2M\aquarius\Analisis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gomado\Documents\F2M\Aquarius\New Repository\BitBucket\aquarius\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95DBA3D-43B0-461A-8235-B8E93BBEA37E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34757E1-B301-460E-8D98-E09AA3C8B7DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="346">
   <si>
     <t>Sesión</t>
   </si>
@@ -982,6 +984,96 @@
   </si>
   <si>
     <t>Error al guardar la información de la tarea</t>
+  </si>
+  <si>
+    <t>Forms</t>
+  </si>
+  <si>
+    <t>No se encontró la definición de forma con los datos proporcionados</t>
+  </si>
+  <si>
+    <t>Error al consultar las definiciones de formas</t>
+  </si>
+  <si>
+    <t>No se tiene la información necesaria para eliminar una definición de forma</t>
+  </si>
+  <si>
+    <t>Error al intentar eliminar la definición de forma</t>
+  </si>
+  <si>
+    <t>Error al crear la definición de forma</t>
+  </si>
+  <si>
+    <t>No se encontró la datos de la forma con los datos proporcionados</t>
+  </si>
+  <si>
+    <t>Error al consultar los datos de formas</t>
+  </si>
+  <si>
+    <t>Error al crear la definición de la forma</t>
+  </si>
+  <si>
+    <t>Error al generar el PDF solicitado</t>
+  </si>
+  <si>
+    <t>Forms Web</t>
+  </si>
+  <si>
+    <t>No se ha encontrado el archivo de propiedades</t>
+  </si>
+  <si>
+    <t>Error al leer las propiedades de conexión a los Web Services</t>
+  </si>
+  <si>
+    <t>Error al parsear la respuesta del servicio</t>
+  </si>
+  <si>
+    <t>El servicio % tuvo un error http con código %</t>
+  </si>
+  <si>
+    <t>La url del servicio está mal formada</t>
+  </si>
+  <si>
+    <t>Error de lectura de respuesta del servicio</t>
+  </si>
+  <si>
+    <t>No se pudo descargar el PDF solicitado</t>
+  </si>
+  <si>
+    <t>No se cuenta con la información completa para realizar la autenticación</t>
+  </si>
+  <si>
+    <t>No se cuenta con la información completa para cerrar la sesión</t>
+  </si>
+  <si>
+    <t>No se cuenta con la información completa para obtener el perfil del usuario</t>
+  </si>
+  <si>
+    <t>No se encontró el perfil del usuario</t>
+  </si>
+  <si>
+    <t>No se cuenta con la información completa para obtener el perfil de páginas</t>
+  </si>
+  <si>
+    <t>No se cuenta con la información completa para obtener las formas</t>
+  </si>
+  <si>
+    <t>No se encontró la forma</t>
+  </si>
+  <si>
+    <t>No se cuenta con la información completa para obtener la forma</t>
+  </si>
+  <si>
+    <t>No se cuenta con la información completa para obtener los datos de las formas</t>
+  </si>
+  <si>
+    <t>No se cuenta con la información completa para obtener los datos de la forma</t>
+  </si>
+  <si>
+    <t>Error al obtener las estadísticas de las formas</t>
+  </si>
+  <si>
+    <t>No se cuenta con la información completa para generar la forma</t>
   </si>
 </sst>
 </file>
@@ -1037,24 +1129,24 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1398,7 +1490,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15:K15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,36 +1508,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
+      <c r="A1" s="9"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="7" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="7"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
       <c r="F2" t="s">
         <v>5</v>
       </c>
@@ -1466,13 +1558,13 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1495,9 +1587,9 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="11"/>
       <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1506,8 +1598,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1531,10 +1623,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1560,8 +1652,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="2" t="s">
         <v>44</v>
       </c>
@@ -1591,8 +1683,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="2" t="s">
         <v>45</v>
       </c>
@@ -1622,8 +1714,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="2" t="s">
         <v>49</v>
       </c>
@@ -1653,8 +1745,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1686,8 +1778,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="2" t="s">
         <v>45</v>
       </c>
@@ -1717,8 +1809,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="2" t="s">
         <v>49</v>
       </c>
@@ -1748,10 +1840,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1777,8 +1869,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="2" t="s">
         <v>34</v>
       </c>
@@ -1808,8 +1900,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="2" t="s">
         <v>43</v>
       </c>
@@ -1839,8 +1931,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
@@ -1870,8 +1962,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1903,8 +1995,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="2" t="s">
         <v>43</v>
       </c>
@@ -1934,8 +2026,8 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="2" t="s">
         <v>39</v>
       </c>
@@ -1966,6 +2058,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="D1:D2"/>
@@ -1975,13 +2074,6 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="A6:A12"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1990,10 +2082,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C216"/>
+  <dimension ref="A1:C251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="C191" sqref="C191"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="C228" sqref="C228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3512,7 +3604,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B209" s="5">
         <v>1426</v>
       </c>
@@ -3520,7 +3612,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B210" s="5">
         <v>1427</v>
       </c>
@@ -3528,7 +3620,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B211" s="5">
         <v>1428</v>
       </c>
@@ -3536,7 +3628,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B212" s="5">
         <v>1429</v>
       </c>
@@ -3544,7 +3636,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B213" s="5">
         <v>1430</v>
       </c>
@@ -3552,7 +3644,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B214" s="5">
         <v>1431</v>
       </c>
@@ -3560,7 +3652,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B215" s="5">
         <v>1432</v>
       </c>
@@ -3568,12 +3660,258 @@
         <v>314</v>
       </c>
     </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B216" s="5">
         <v>1433</v>
       </c>
       <c r="C216" t="s">
         <v>315</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>316</v>
+      </c>
+      <c r="B218" s="5">
+        <v>1501</v>
+      </c>
+      <c r="C218" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B219" s="5">
+        <v>1502</v>
+      </c>
+      <c r="C219" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B220" s="5">
+        <v>1503</v>
+      </c>
+      <c r="C220" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B221" s="5">
+        <v>1504</v>
+      </c>
+      <c r="C221" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B222" s="5">
+        <v>1505</v>
+      </c>
+      <c r="C222" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B223" s="5">
+        <v>1506</v>
+      </c>
+      <c r="C223" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B224" s="5">
+        <v>1507</v>
+      </c>
+      <c r="C224" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B225" s="5">
+        <v>1508</v>
+      </c>
+      <c r="C225" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B226" s="5">
+        <v>1509</v>
+      </c>
+      <c r="C226" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B227" s="5">
+        <v>1510</v>
+      </c>
+      <c r="C227" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B228" s="5">
+        <v>1511</v>
+      </c>
+      <c r="C228" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B229" s="5">
+        <v>1512</v>
+      </c>
+      <c r="C229" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>326</v>
+      </c>
+      <c r="B234" s="5">
+        <v>1600</v>
+      </c>
+      <c r="C234" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B235" s="5">
+        <v>1601</v>
+      </c>
+      <c r="C235" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B236" s="5">
+        <v>1602</v>
+      </c>
+      <c r="C236" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B237" s="5">
+        <v>1603</v>
+      </c>
+      <c r="C237" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B238" s="5">
+        <v>1604</v>
+      </c>
+      <c r="C238" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B239" s="5">
+        <v>1605</v>
+      </c>
+      <c r="C239" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B240" s="5">
+        <v>1606</v>
+      </c>
+      <c r="C240" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B241" s="5">
+        <v>1607</v>
+      </c>
+      <c r="C241" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B242" s="5">
+        <v>1608</v>
+      </c>
+      <c r="C242" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B243" s="5">
+        <v>1609</v>
+      </c>
+      <c r="C243" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B244" s="5">
+        <v>1610</v>
+      </c>
+      <c r="C244" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B245" s="5">
+        <v>1611</v>
+      </c>
+      <c r="C245" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B246" s="5">
+        <v>1612</v>
+      </c>
+      <c r="C246" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B247" s="5">
+        <v>1613</v>
+      </c>
+      <c r="C247" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B248" s="5">
+        <v>1614</v>
+      </c>
+      <c r="C248" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B249" s="5">
+        <v>1615</v>
+      </c>
+      <c r="C249" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B250" s="5">
+        <v>1616</v>
+      </c>
+      <c r="C250" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B251" s="5">
+        <v>1617</v>
+      </c>
+      <c r="C251" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/Analisis/Servicios.xlsx
+++ b/Analisis/Servicios.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gomado\Documents\F2M\Aquarius\New Repository\BitBucket\aquarius\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34757E1-B301-460E-8D98-E09AA3C8B7DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4631F9ED-8EAE-492A-8A5F-B43159926D9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Servicios" sheetId="1" r:id="rId1"/>
-    <sheet name="Status" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="4" r:id="rId3"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="5" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Hoja3!$A$1:$G$188</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja3!$A$1:$G$188</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="354">
   <si>
     <t>Sesión</t>
   </si>
@@ -1074,6 +1077,30 @@
   </si>
   <si>
     <t>No se cuenta con la información completa para generar la forma</t>
+  </si>
+  <si>
+    <t>No se cuenta con la información completa para inscribir al usuario</t>
+  </si>
+  <si>
+    <t>No se cuenta con la información completa para validar el código</t>
+  </si>
+  <si>
+    <t>No se cuenta con la información completa para poder cambiar la contraseña</t>
+  </si>
+  <si>
+    <t>No se cuenta con la información completa para solicitar el cambio de la contraseña</t>
+  </si>
+  <si>
+    <t>No se cuenta con la información completa para actualizar al usuario</t>
+  </si>
+  <si>
+    <t>Error al leer la plantilla de correo electrónico</t>
+  </si>
+  <si>
+    <t>No se ha validado la cuenta</t>
+  </si>
+  <si>
+    <t>Error al enviar correo electrónico</t>
   </si>
 </sst>
 </file>
@@ -1129,24 +1156,24 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1164,6 +1191,1276 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Status"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2">
+            <v>-1</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>Error desconocido</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>Operación Exitosa</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>1</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>La sesión ha expirado</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>2</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>Sesión duplicada</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>3</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>Credenciales invalidas</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>4</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>No se encontró la sesión</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>5</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>Información de sesión incompleta</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>6</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>Sesión no valida</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>7</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>El usuario ha excedido el número de sesiones concurrentes</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>8</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>No se pudo cerrar la sesión</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>9</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>No se pudo iniciar la sesión</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>10</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>El número de usuarios excede el máximo permitido</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>101</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>No se encontró al usuario con los datos proporcionados</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>102</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>Hay más de un usuario con los datos proporcionados</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>103</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>La contraseña no cumple con los requisitos</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>104</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>Error al codificar la contraseña del usuario</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>105</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>El usuario no tiene los datos necesarios para verificar la contraseña</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>106</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>Error al verificar la contraseña del usuario</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>107</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>El usuario no tiene los datos necesarios para actualizar la contraseña</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>108</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>Error al intentar actualizar la contraseña del usuario</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>109</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>El DN del usuario no puede ser nulo o estar vacío</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>110</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>Error al intentar eliminar el usuario</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>111</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>El query no puede ser nulo o estar vacío</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>112</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>Error al realizar la búsqueda con filtro</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>113</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>El Dominio del usuario no puede ser nulo o estar vacío</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>114</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>El UID del usuario no puede ser nulo o estar vacío</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>115</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>Error al listar los usuarios</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>116</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>El usuario no tiene los datos necesarios para insertarlo</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>117</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>Error al intentar insertar el usuario</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>118</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>No se pudo eliminar el usuario</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>119</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>No se pudo insertar o actualizar el usuario</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>120</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>El usuario no tiene los datos necesarios para realizar la búsqueda</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>121</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>El usuario no existe en la Base de Datos</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40">
+            <v>201</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>No se encontró el grupo con los datos proporcionados</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
+            <v>202</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>Hay más de un grupo con los datos proporcionados</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>203</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>El DN del grupo no puede ser nulo o estar vacío</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>204</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>Error al intentar eliminar el grupo</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>205</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>Error al listar los grupos</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45">
+            <v>206</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>El grupo no tiene los datos necesarios para insertarlo</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46">
+            <v>207</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>Error al insertar el grupo</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47">
+            <v>208</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>El query no puede ser nulo o estar vacío</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48">
+            <v>209</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>Error al realizar la búsqueda con filtro</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49">
+            <v>210</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>El Dominio del grupo no puede ser nulo o estar vacío</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50">
+            <v>211</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>El CN del grupo no puede ser nulo o estar vacío</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51">
+            <v>212</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>Error al buscar los grupos del usuario</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52">
+            <v>213</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>Error al buscar los miembros del grupo</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53">
+            <v>214</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>El usuario y/o grupos no pueden ser nulo</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54">
+            <v>215</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>No se pudo eliminar el grupo</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55">
+            <v>216</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>No se pudo insertar o actualizar el grupo</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58">
+            <v>301</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>La OU no tiene los datos necesarios para insertarla</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59">
+            <v>302</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>Error al insertar la Organization Unit</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60">
+            <v>303</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>La OU no tiene los datos necesarios para eliminarla</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61">
+            <v>304</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>Error al eliminar la Organization Unit</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62">
+            <v>305</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>El Base DN no puede ser nulo o estar vacío</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63">
+            <v>306</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>Error al listar los elementos</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64">
+            <v>307</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>No se pudo insertar la Organization Unit</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65">
+            <v>308</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>No se pudo eliminar la Organization Unit</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68">
+            <v>401</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>No se encontró el objeto</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69">
+            <v>402</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>Error al obtener el objeto</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70">
+            <v>403</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v>No se encontraron los objetos con la información proporcionada</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71">
+            <v>404</v>
+          </cell>
+          <cell r="C71" t="str">
+            <v>El objeto no tiene los datos necesarios para insertarlo</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72">
+            <v>405</v>
+          </cell>
+          <cell r="C72" t="str">
+            <v>No se puede crear el objeto. Ya existe un objeto con el mismo nombre</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73">
+            <v>406</v>
+          </cell>
+          <cell r="C73" t="str">
+            <v>El contenido del documento es nulo o viene vacío</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74">
+            <v>407</v>
+          </cell>
+          <cell r="C74" t="str">
+            <v>Error al guardar el archivo</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75">
+            <v>408</v>
+          </cell>
+          <cell r="C75" t="str">
+            <v>El directorio raíz en el File System no existe o no está vacío</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76">
+            <v>409</v>
+          </cell>
+          <cell r="C76" t="str">
+            <v>No se tienen los datos necesarios para el directorio raíz en el File System</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77">
+            <v>410</v>
+          </cell>
+          <cell r="C77" t="str">
+            <v>Error al crear el Storage Area</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78">
+            <v>411</v>
+          </cell>
+          <cell r="C78" t="str">
+            <v>Los datos del objeto a crear no corresponden con los datos de su padre</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79">
+            <v>412</v>
+          </cell>
+          <cell r="C79" t="str">
+            <v>No se encontró el dominio</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80">
+            <v>413</v>
+          </cell>
+          <cell r="C80" t="str">
+            <v>No se encontró el Storage Area</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81">
+            <v>414</v>
+          </cell>
+          <cell r="C81" t="str">
+            <v>Error al crear la Storage Policy</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82">
+            <v>415</v>
+          </cell>
+          <cell r="C82" t="str">
+            <v>Error al crear el Documento</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83">
+            <v>416</v>
+          </cell>
+          <cell r="C83" t="str">
+            <v>El contenido del documento excede el tamaño máximo permitido</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84">
+            <v>417</v>
+          </cell>
+          <cell r="C84" t="str">
+            <v>No se encontró la Storage Policy</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85">
+            <v>418</v>
+          </cell>
+          <cell r="C85" t="str">
+            <v>No se encontró la información para recuperar el contenido del documento</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86">
+            <v>419</v>
+          </cell>
+          <cell r="C86" t="str">
+            <v>Error al guardar la información de la versión del documento</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87">
+            <v>420</v>
+          </cell>
+          <cell r="C87" t="str">
+            <v>Error al guardar la información de la metadata del documento</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88">
+            <v>421</v>
+          </cell>
+          <cell r="C88" t="str">
+            <v>Error al actualizar el status de las versiones anteriores del documento</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89">
+            <v>422</v>
+          </cell>
+          <cell r="C89" t="str">
+            <v>El objeto no tiene los datos necesarios para agregarlo a favoritos</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90">
+            <v>423</v>
+          </cell>
+          <cell r="C90" t="str">
+            <v>No se encontraron favoritos con la información proporcionada</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91">
+            <v>424</v>
+          </cell>
+          <cell r="C91" t="str">
+            <v>No se tiene la información necesaria para mover la carpeta</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92">
+            <v>425</v>
+          </cell>
+          <cell r="C92" t="str">
+            <v>No se tiene la información necesaria para copiar la carpeta</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93">
+            <v>426</v>
+          </cell>
+          <cell r="C93" t="str">
+            <v>No se tiene la información necesaria para descargar la carpeta</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94">
+            <v>427</v>
+          </cell>
+          <cell r="C94" t="str">
+            <v>No se definió el tipo de descarga de la carpeta</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95">
+            <v>428</v>
+          </cell>
+          <cell r="C95" t="str">
+            <v>Error en la descarga de la carpeta</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96">
+            <v>429</v>
+          </cell>
+          <cell r="C96" t="str">
+            <v>No se encontraron plantillas con la información proporcionada</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97">
+            <v>430</v>
+          </cell>
+          <cell r="C97" t="str">
+            <v>El objeto no tiene los datos necesarios para agregarlo a una plantilla</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98">
+            <v>431</v>
+          </cell>
+          <cell r="C98" t="str">
+            <v>Error al ejecutar la plantilla</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99">
+            <v>432</v>
+          </cell>
+          <cell r="C99" t="str">
+            <v>No se tiene la información necesaria para eliminar la plantilla</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100">
+            <v>433</v>
+          </cell>
+          <cell r="C100" t="str">
+            <v>No se tiene la información necesaria para eliminar la carpeta</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101">
+            <v>434</v>
+          </cell>
+          <cell r="C101" t="str">
+            <v>El objeto no tiene los datos necesarios para eliminarlo de favoritos</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102">
+            <v>435</v>
+          </cell>
+          <cell r="C102" t="str">
+            <v>No se tiene la información necesaria para mover el documento</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103">
+            <v>436</v>
+          </cell>
+          <cell r="C103" t="str">
+            <v>No se tiene la información necesaria para copiar el documento</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="B104">
+            <v>437</v>
+          </cell>
+          <cell r="C104" t="str">
+            <v>No se tiene la información necesaria para eliminar el documento</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="B105">
+            <v>438</v>
+          </cell>
+          <cell r="C105" t="str">
+            <v>No se definió el tipo de descarga del documento</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="B106">
+            <v>439</v>
+          </cell>
+          <cell r="C106" t="str">
+            <v>No se tiene la información necesaria para compartir el documento</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="B107">
+            <v>440</v>
+          </cell>
+          <cell r="C107" t="str">
+            <v>No se tiene la información necesaria para asignar versión actual al documento</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="B108">
+            <v>441</v>
+          </cell>
+          <cell r="C108" t="str">
+            <v>No se tiene la información necesaria para reservar el documento</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="B109">
+            <v>442</v>
+          </cell>
+          <cell r="C109" t="str">
+            <v>No se tiene la información necesaria para cancelar la reserva del documento</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="B110">
+            <v>443</v>
+          </cell>
+          <cell r="C110" t="str">
+            <v>No se tiene la información necesaria para la  nueva versión del documento</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="B111">
+            <v>444</v>
+          </cell>
+          <cell r="C111" t="str">
+            <v>No se tiene la información para actualizar el nombre del objeto</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="B112">
+            <v>445</v>
+          </cell>
+          <cell r="C112" t="str">
+            <v>No se tiene la información para actualizar la visibilidad del objeto</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="B113">
+            <v>446</v>
+          </cell>
+          <cell r="C113" t="str">
+            <v>No se tiene la información necesaria para obtener los dominios</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="B114">
+            <v>447</v>
+          </cell>
+          <cell r="C114" t="str">
+            <v>No se tiene la información necesaria para obtener las Storage Area</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="B115">
+            <v>448</v>
+          </cell>
+          <cell r="C115" t="str">
+            <v>No se tiene la información necesaria para obtener las Storage Policy</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="B116">
+            <v>449</v>
+          </cell>
+          <cell r="C116" t="str">
+            <v>No se tiene la información necesaria para agregar un Sello</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="B117">
+            <v>450</v>
+          </cell>
+          <cell r="C117" t="str">
+            <v>No se tiene la información necesaria para obtener un Sello</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="B118">
+            <v>451</v>
+          </cell>
+          <cell r="C118" t="str">
+            <v>Error al guardar la información del Sello</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="B119">
+            <v>452</v>
+          </cell>
+          <cell r="C119" t="str">
+            <v>No se tiene la información necesaria para eliminar el sello</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="B125">
+            <v>501</v>
+          </cell>
+          <cell r="C125" t="str">
+            <v>Error de conexión con la Base de Datos</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="B126">
+            <v>502</v>
+          </cell>
+          <cell r="C126" t="str">
+            <v>No se tiene la información completa para generar el query</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="B127">
+            <v>503</v>
+          </cell>
+          <cell r="C127" t="str">
+            <v>Error al ejecutar el query</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="B128">
+            <v>504</v>
+          </cell>
+          <cell r="C128" t="str">
+            <v>Error al leer el objeto Json en la Base de Datos</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="B131">
+            <v>601</v>
+          </cell>
+          <cell r="C131" t="str">
+            <v>Error de conexión con el servidor de Correo Electrónico</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="B132">
+            <v>602</v>
+          </cell>
+          <cell r="C132" t="str">
+            <v>Error al enviar un Correo Electrónico</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="B135">
+            <v>701</v>
+          </cell>
+          <cell r="C135" t="str">
+            <v>No se encontró información con los datos proporcionados</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="B136">
+            <v>702</v>
+          </cell>
+          <cell r="C136" t="str">
+            <v>No se encuentra la información solicitada</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="B138">
+            <v>801</v>
+          </cell>
+          <cell r="C138" t="str">
+            <v>No se encontró los parametros de la configuración solicitada</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="B139">
+            <v>802</v>
+          </cell>
+          <cell r="C139" t="str">
+            <v>No se pudo cargar la configuración</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="B141">
+            <v>901</v>
+          </cell>
+          <cell r="C141" t="str">
+            <v>No se encontró el comentario con los datos proporcionados</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="B142">
+            <v>902</v>
+          </cell>
+          <cell r="C142" t="str">
+            <v>El objeto no tiene los datos necesarios para insertarlo</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="B143">
+            <v>903</v>
+          </cell>
+          <cell r="C143" t="str">
+            <v>Los componentes sociales sólo pueden ser aplicados a objetos de tipo Document</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="B144">
+            <v>904</v>
+          </cell>
+          <cell r="C144" t="str">
+            <v>Error al crear el comentario</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="B145">
+            <v>905</v>
+          </cell>
+          <cell r="C145" t="str">
+            <v>Error al consultar los comentarios</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="B146">
+            <v>906</v>
+          </cell>
+          <cell r="C146" t="str">
+            <v>No se encontró el like con los datos proporcionados</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="B147">
+            <v>907</v>
+          </cell>
+          <cell r="C147" t="str">
+            <v>Error al guardar el Like</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="B149">
+            <v>1001</v>
+          </cell>
+          <cell r="C149" t="str">
+            <v>No se encontró el perfil con los datos proporcionados</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="B150">
+            <v>1002</v>
+          </cell>
+          <cell r="C150" t="str">
+            <v>El objeto no tiene los datos necesarios para insertarlo</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="B151">
+            <v>1003</v>
+          </cell>
+          <cell r="C151" t="str">
+            <v>Error al crear el profile</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="B152">
+            <v>1004</v>
+          </cell>
+          <cell r="C152" t="str">
+            <v>Error al consultar los perfiles</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="B153">
+            <v>1005</v>
+          </cell>
+          <cell r="C153" t="str">
+            <v>No se puede eliminar el perfil con los datos proporcionados</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="B155">
+            <v>1101</v>
+          </cell>
+          <cell r="C155" t="str">
+            <v>No se encontró la página con los datos proporcionados</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="B156">
+            <v>1102</v>
+          </cell>
+          <cell r="C156" t="str">
+            <v>El objeto no tiene los datos necesarios para insertarlo</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="B157">
+            <v>1103</v>
+          </cell>
+          <cell r="C157" t="str">
+            <v>Error al insertar la página</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="B158">
+            <v>1104</v>
+          </cell>
+          <cell r="C158" t="str">
+            <v>Error al insertar el componente</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="B159">
+            <v>1105</v>
+          </cell>
+          <cell r="C159" t="str">
+            <v>Error al insertar el perfil de página</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="B160">
+            <v>1106</v>
+          </cell>
+          <cell r="C160" t="str">
+            <v>No se encontró el componente con los datos proporcionados</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="B161">
+            <v>1107</v>
+          </cell>
+          <cell r="C161" t="str">
+            <v>No se encontró el perfil con los datos proporcionados</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="B163">
+            <v>1201</v>
+          </cell>
+          <cell r="C163" t="str">
+            <v>No se encontró la búsqueda almacenada con los datos proporcionados</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="B164">
+            <v>1202</v>
+          </cell>
+          <cell r="C164" t="str">
+            <v>El objeto no tiene los datos necesarios para insertarlo</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="B165">
+            <v>1203</v>
+          </cell>
+          <cell r="C165" t="str">
+            <v>Error al insertar la búsqueda almacenada</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="B166">
+            <v>1204</v>
+          </cell>
+          <cell r="C166" t="str">
+            <v>El objeto no tiene los datos necesarios para ejecutar la búsqueda</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="B168">
+            <v>1301</v>
+          </cell>
+          <cell r="C168" t="str">
+            <v>Error al cambiar el tiempo de ejecución del Batch. No se encuentra en el rango permitido</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="B169">
+            <v>1302</v>
+          </cell>
+          <cell r="C169" t="str">
+            <v>No se tienen la información necesaria para cambiar el tiempo de ejecución del Batch</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="B170">
+            <v>1303</v>
+          </cell>
+          <cell r="C170" t="str">
+            <v>No se tiene la información necesaria para iniciar/detener la ejecución del Batch</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="B171">
+            <v>1304</v>
+          </cell>
+          <cell r="C171" t="str">
+            <v>Error al consultar los procesos batch</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="B172">
+            <v>1305</v>
+          </cell>
+          <cell r="C172" t="str">
+            <v>No se tiene la información necesaria para insertar un proceso batch</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="B173">
+            <v>1306</v>
+          </cell>
+          <cell r="C173" t="str">
+            <v>Error al insertar el proceso batch</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="B174">
+            <v>1307</v>
+          </cell>
+          <cell r="C174" t="str">
+            <v>No se tiene la información necesaria para eliminar un proceso batch</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="B175">
+            <v>1308</v>
+          </cell>
+          <cell r="C175" t="str">
+            <v>No se tiene la información necesaria para la ejecución del OCR</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="B176">
+            <v>1309</v>
+          </cell>
+          <cell r="C176" t="str">
+            <v>No se encontró el archivo OCR</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="B177">
+            <v>1310</v>
+          </cell>
+          <cell r="C177" t="str">
+            <v>Error al ejecutar el motor de OCR</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="B178">
+            <v>1311</v>
+          </cell>
+          <cell r="C178" t="str">
+            <v>No se tiene la información necesaria para eliminar el OCR de un documento</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="B179">
+            <v>1312</v>
+          </cell>
+          <cell r="C179" t="str">
+            <v>No se tiene la información necesaria para procesar una tarea de OCR</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="B180">
+            <v>1313</v>
+          </cell>
+          <cell r="C180" t="str">
+            <v>No se tiene la información necesaria para insertar un proceso OCR</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="B181">
+            <v>1314</v>
+          </cell>
+          <cell r="C181" t="str">
+            <v>Error al intentar leer el archivo en formato PDF</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="B182">
+            <v>1315</v>
+          </cell>
+          <cell r="C182" t="str">
+            <v>Error al guardar el archivo para el reconocimiento del OCR</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1508,36 +2805,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
+      <c r="A1" s="6"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="10" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="10"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
       <c r="F2" t="s">
         <v>5</v>
       </c>
@@ -1558,13 +2855,13 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1587,9 +2884,9 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="11"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
       <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1598,8 +2895,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1623,10 +2920,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1652,8 +2949,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="2" t="s">
         <v>44</v>
       </c>
@@ -1683,8 +2980,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="2" t="s">
         <v>45</v>
       </c>
@@ -1714,8 +3011,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="2" t="s">
         <v>49</v>
       </c>
@@ -1745,8 +3042,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1778,8 +3075,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="2" t="s">
         <v>45</v>
       </c>
@@ -1809,8 +3106,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="2" t="s">
         <v>49</v>
       </c>
@@ -1840,10 +3137,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1869,8 +3166,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="2" t="s">
         <v>34</v>
       </c>
@@ -1900,8 +3197,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="2" t="s">
         <v>43</v>
       </c>
@@ -1931,8 +3228,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
@@ -1962,8 +3259,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1995,8 +3292,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="2" t="s">
         <v>43</v>
       </c>
@@ -2026,8 +3323,8 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="2" t="s">
         <v>39</v>
       </c>
@@ -2058,13 +3355,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="D1:D2"/>
@@ -2074,6 +3364,13 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="A6:A12"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2081,1851 +3378,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C251"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="C228" sqref="C228"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="5"/>
-    <col min="3" max="3" width="91.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5">
-        <v>-1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="5">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="5">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="5">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="5">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" s="5">
-        <v>101</v>
-      </c>
-      <c r="C16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="5">
-        <v>102</v>
-      </c>
-      <c r="C17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="5">
-        <v>103</v>
-      </c>
-      <c r="C18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="5">
-        <v>104</v>
-      </c>
-      <c r="C19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="5">
-        <v>105</v>
-      </c>
-      <c r="C20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="5">
-        <v>106</v>
-      </c>
-      <c r="C21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="5">
-        <v>107</v>
-      </c>
-      <c r="C22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="5">
-        <v>108</v>
-      </c>
-      <c r="C23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="5">
-        <v>109</v>
-      </c>
-      <c r="C24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="5">
-        <v>110</v>
-      </c>
-      <c r="C25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="5">
-        <v>111</v>
-      </c>
-      <c r="C26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="5">
-        <v>112</v>
-      </c>
-      <c r="C27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="5">
-        <v>113</v>
-      </c>
-      <c r="C28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="5">
-        <v>114</v>
-      </c>
-      <c r="C29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="5">
-        <v>115</v>
-      </c>
-      <c r="C30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="5">
-        <v>116</v>
-      </c>
-      <c r="C31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="5">
-        <v>117</v>
-      </c>
-      <c r="C32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="5">
-        <v>118</v>
-      </c>
-      <c r="C33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="5">
-        <v>119</v>
-      </c>
-      <c r="C34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="5">
-        <v>120</v>
-      </c>
-      <c r="C35" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="5">
-        <v>121</v>
-      </c>
-      <c r="C36" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>129</v>
-      </c>
-      <c r="B40" s="5">
-        <v>201</v>
-      </c>
-      <c r="C40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="5">
-        <v>202</v>
-      </c>
-      <c r="C41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="5">
-        <v>203</v>
-      </c>
-      <c r="C42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="5">
-        <v>204</v>
-      </c>
-      <c r="C43" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="5">
-        <v>205</v>
-      </c>
-      <c r="C44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="5">
-        <v>206</v>
-      </c>
-      <c r="C45" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="5">
-        <v>207</v>
-      </c>
-      <c r="C46" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="5">
-        <v>208</v>
-      </c>
-      <c r="C47" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="5">
-        <v>209</v>
-      </c>
-      <c r="C48" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="5">
-        <v>210</v>
-      </c>
-      <c r="C49" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="5">
-        <v>211</v>
-      </c>
-      <c r="C50" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="5">
-        <v>212</v>
-      </c>
-      <c r="C51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="5">
-        <v>213</v>
-      </c>
-      <c r="C52" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="5">
-        <v>214</v>
-      </c>
-      <c r="C53" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="5">
-        <v>215</v>
-      </c>
-      <c r="C54" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="5">
-        <v>216</v>
-      </c>
-      <c r="C55" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>130</v>
-      </c>
-      <c r="B58" s="5">
-        <v>301</v>
-      </c>
-      <c r="C58" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="5">
-        <v>302</v>
-      </c>
-      <c r="C59" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="5">
-        <v>303</v>
-      </c>
-      <c r="C60" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="5">
-        <v>304</v>
-      </c>
-      <c r="C61" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="5">
-        <v>305</v>
-      </c>
-      <c r="C62" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="5">
-        <v>306</v>
-      </c>
-      <c r="C63" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="5">
-        <v>307</v>
-      </c>
-      <c r="C64" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="5">
-        <v>308</v>
-      </c>
-      <c r="C65" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>131</v>
-      </c>
-      <c r="B68" s="5">
-        <v>401</v>
-      </c>
-      <c r="C68" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="5">
-        <v>402</v>
-      </c>
-      <c r="C69" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="5">
-        <v>403</v>
-      </c>
-      <c r="C70" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="5">
-        <v>404</v>
-      </c>
-      <c r="C71" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="5">
-        <v>405</v>
-      </c>
-      <c r="C72" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="5">
-        <v>406</v>
-      </c>
-      <c r="C73" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="5">
-        <v>407</v>
-      </c>
-      <c r="C74" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="5">
-        <v>408</v>
-      </c>
-      <c r="C75" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="5">
-        <v>409</v>
-      </c>
-      <c r="C76" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="5">
-        <v>410</v>
-      </c>
-      <c r="C77" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="5">
-        <v>411</v>
-      </c>
-      <c r="C78" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="5">
-        <v>412</v>
-      </c>
-      <c r="C79" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="5">
-        <v>413</v>
-      </c>
-      <c r="C80" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="5">
-        <v>414</v>
-      </c>
-      <c r="C81" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="5">
-        <v>415</v>
-      </c>
-      <c r="C82" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="5">
-        <v>416</v>
-      </c>
-      <c r="C83" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="5">
-        <v>417</v>
-      </c>
-      <c r="C84" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="5">
-        <v>418</v>
-      </c>
-      <c r="C85" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="5">
-        <v>419</v>
-      </c>
-      <c r="C86" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="5">
-        <v>420</v>
-      </c>
-      <c r="C87" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="5">
-        <v>421</v>
-      </c>
-      <c r="C88" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="5">
-        <v>422</v>
-      </c>
-      <c r="C89" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="5">
-        <v>423</v>
-      </c>
-      <c r="C90" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="5">
-        <v>424</v>
-      </c>
-      <c r="C91" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="5">
-        <v>425</v>
-      </c>
-      <c r="C92" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="5">
-        <v>426</v>
-      </c>
-      <c r="C93" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="5">
-        <v>427</v>
-      </c>
-      <c r="C94" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="5">
-        <v>428</v>
-      </c>
-      <c r="C95" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="5">
-        <v>429</v>
-      </c>
-      <c r="C96" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="5">
-        <v>430</v>
-      </c>
-      <c r="C97" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="5">
-        <v>431</v>
-      </c>
-      <c r="C98" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="5">
-        <v>432</v>
-      </c>
-      <c r="C99" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" s="5">
-        <v>433</v>
-      </c>
-      <c r="C100" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101" s="5">
-        <v>434</v>
-      </c>
-      <c r="C101" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" s="5">
-        <v>435</v>
-      </c>
-      <c r="C102" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103" s="5">
-        <v>436</v>
-      </c>
-      <c r="C103" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B104" s="5">
-        <v>437</v>
-      </c>
-      <c r="C104" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B105" s="5">
-        <v>438</v>
-      </c>
-      <c r="C105" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B106" s="5">
-        <v>439</v>
-      </c>
-      <c r="C106" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B107" s="5">
-        <v>440</v>
-      </c>
-      <c r="C107" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B108" s="5">
-        <v>441</v>
-      </c>
-      <c r="C108" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B109" s="5">
-        <v>442</v>
-      </c>
-      <c r="C109" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B110" s="5">
-        <v>443</v>
-      </c>
-      <c r="C110" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B111" s="5">
-        <v>444</v>
-      </c>
-      <c r="C111" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B112" s="5">
-        <v>445</v>
-      </c>
-      <c r="C112" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B113" s="5">
-        <v>446</v>
-      </c>
-      <c r="C113" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B114" s="5">
-        <v>447</v>
-      </c>
-      <c r="C114" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B115" s="5">
-        <v>448</v>
-      </c>
-      <c r="C115" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B116" s="5">
-        <v>449</v>
-      </c>
-      <c r="C116" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B117" s="5">
-        <v>450</v>
-      </c>
-      <c r="C117" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B118" s="5">
-        <v>451</v>
-      </c>
-      <c r="C118" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B119" s="5">
-        <v>452</v>
-      </c>
-      <c r="C119" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>132</v>
-      </c>
-      <c r="B125" s="5">
-        <v>501</v>
-      </c>
-      <c r="C125" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B126" s="5">
-        <v>502</v>
-      </c>
-      <c r="C126" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B127" s="5">
-        <v>503</v>
-      </c>
-      <c r="C127" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B128" s="5">
-        <v>504</v>
-      </c>
-      <c r="C128" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>133</v>
-      </c>
-      <c r="B131" s="5">
-        <v>601</v>
-      </c>
-      <c r="C131" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B132" s="5">
-        <v>602</v>
-      </c>
-      <c r="C132" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>134</v>
-      </c>
-      <c r="B135" s="5">
-        <v>701</v>
-      </c>
-      <c r="C135" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B136" s="5">
-        <v>702</v>
-      </c>
-      <c r="C136" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>139</v>
-      </c>
-      <c r="B138" s="5">
-        <v>801</v>
-      </c>
-      <c r="C138" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B139" s="5">
-        <v>802</v>
-      </c>
-      <c r="C139" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>164</v>
-      </c>
-      <c r="B141" s="5">
-        <v>901</v>
-      </c>
-      <c r="C141" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B142" s="5">
-        <v>902</v>
-      </c>
-      <c r="C142" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B143" s="5">
-        <v>903</v>
-      </c>
-      <c r="C143" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B144" s="5">
-        <v>904</v>
-      </c>
-      <c r="C144" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B145" s="5">
-        <v>905</v>
-      </c>
-      <c r="C145" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B146" s="5">
-        <v>906</v>
-      </c>
-      <c r="C146" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B147" s="5">
-        <v>907</v>
-      </c>
-      <c r="C147" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>173</v>
-      </c>
-      <c r="B149" s="5">
-        <v>1001</v>
-      </c>
-      <c r="C149" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B150" s="5">
-        <v>1002</v>
-      </c>
-      <c r="C150" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B151" s="5">
-        <v>1003</v>
-      </c>
-      <c r="C151" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B152" s="5">
-        <v>1004</v>
-      </c>
-      <c r="C152" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B153" s="5">
-        <v>1005</v>
-      </c>
-      <c r="C153" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>178</v>
-      </c>
-      <c r="B155" s="5">
-        <v>1101</v>
-      </c>
-      <c r="C155" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B156" s="5">
-        <v>1102</v>
-      </c>
-      <c r="C156" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B157" s="5">
-        <v>1103</v>
-      </c>
-      <c r="C157" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B158" s="5">
-        <v>1104</v>
-      </c>
-      <c r="C158" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B159" s="5">
-        <v>1105</v>
-      </c>
-      <c r="C159" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B160" s="5">
-        <v>1106</v>
-      </c>
-      <c r="C160" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B161" s="5">
-        <v>1107</v>
-      </c>
-      <c r="C161" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>184</v>
-      </c>
-      <c r="B163" s="5">
-        <v>1201</v>
-      </c>
-      <c r="C163" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B164" s="5">
-        <v>1202</v>
-      </c>
-      <c r="C164" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B165" s="5">
-        <v>1203</v>
-      </c>
-      <c r="C165" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B166" s="5">
-        <v>1204</v>
-      </c>
-      <c r="C166" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>219</v>
-      </c>
-      <c r="B168" s="5">
-        <v>1301</v>
-      </c>
-      <c r="C168" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B169" s="5">
-        <v>1302</v>
-      </c>
-      <c r="C169" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B170" s="5">
-        <v>1303</v>
-      </c>
-      <c r="C170" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B171" s="5">
-        <v>1304</v>
-      </c>
-      <c r="C171" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B172" s="5">
-        <v>1305</v>
-      </c>
-      <c r="C172" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B173" s="5">
-        <v>1306</v>
-      </c>
-      <c r="C173" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B174" s="5">
-        <v>1307</v>
-      </c>
-      <c r="C174" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B175" s="5">
-        <v>1308</v>
-      </c>
-      <c r="C175" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B176" s="5">
-        <v>1309</v>
-      </c>
-      <c r="C176" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B177" s="5">
-        <v>1310</v>
-      </c>
-      <c r="C177" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B178" s="5">
-        <v>1311</v>
-      </c>
-      <c r="C178" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B179" s="5">
-        <v>1312</v>
-      </c>
-      <c r="C179" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B180" s="5">
-        <v>1313</v>
-      </c>
-      <c r="C180" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B181" s="5">
-        <v>1314</v>
-      </c>
-      <c r="C181" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B182" s="5">
-        <v>1315</v>
-      </c>
-      <c r="C182" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>283</v>
-      </c>
-      <c r="B184" s="5">
-        <v>1401</v>
-      </c>
-      <c r="C184" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B185" s="5">
-        <v>1402</v>
-      </c>
-      <c r="C185" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B186" s="5">
-        <v>1403</v>
-      </c>
-      <c r="C186" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B187" s="5">
-        <v>1404</v>
-      </c>
-      <c r="C187" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B188" s="5">
-        <v>1405</v>
-      </c>
-      <c r="C188" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B189" s="5">
-        <v>1406</v>
-      </c>
-      <c r="C189" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B190" s="5">
-        <v>1407</v>
-      </c>
-      <c r="C190" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B191" s="5">
-        <v>1408</v>
-      </c>
-      <c r="C191" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B192" s="5">
-        <v>1409</v>
-      </c>
-      <c r="C192" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B193" s="5">
-        <v>1410</v>
-      </c>
-      <c r="C193" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B194" s="5">
-        <v>1411</v>
-      </c>
-      <c r="C194" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B195" s="5">
-        <v>1412</v>
-      </c>
-      <c r="C195" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B196" s="5">
-        <v>1413</v>
-      </c>
-      <c r="C196" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B197" s="5">
-        <v>1414</v>
-      </c>
-      <c r="C197" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B198" s="5">
-        <v>1415</v>
-      </c>
-      <c r="C198" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B199" s="5">
-        <v>1416</v>
-      </c>
-      <c r="C199" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B200" s="5">
-        <v>1417</v>
-      </c>
-      <c r="C200" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B201" s="5">
-        <v>1418</v>
-      </c>
-      <c r="C201" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B202" s="5">
-        <v>1419</v>
-      </c>
-      <c r="C202" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B203" s="5">
-        <v>1420</v>
-      </c>
-      <c r="C203" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B204" s="5">
-        <v>1421</v>
-      </c>
-      <c r="C204" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B205" s="5">
-        <v>1422</v>
-      </c>
-      <c r="C205" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B206" s="5">
-        <v>1423</v>
-      </c>
-      <c r="C206" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B207" s="5">
-        <v>1424</v>
-      </c>
-      <c r="C207" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B208" s="5">
-        <v>1425</v>
-      </c>
-      <c r="C208" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B209" s="5">
-        <v>1426</v>
-      </c>
-      <c r="C209" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B210" s="5">
-        <v>1427</v>
-      </c>
-      <c r="C210" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B211" s="5">
-        <v>1428</v>
-      </c>
-      <c r="C211" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B212" s="5">
-        <v>1429</v>
-      </c>
-      <c r="C212" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B213" s="5">
-        <v>1430</v>
-      </c>
-      <c r="C213" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B214" s="5">
-        <v>1431</v>
-      </c>
-      <c r="C214" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B215" s="5">
-        <v>1432</v>
-      </c>
-      <c r="C215" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B216" s="5">
-        <v>1433</v>
-      </c>
-      <c r="C216" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>316</v>
-      </c>
-      <c r="B218" s="5">
-        <v>1501</v>
-      </c>
-      <c r="C218" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B219" s="5">
-        <v>1502</v>
-      </c>
-      <c r="C219" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B220" s="5">
-        <v>1503</v>
-      </c>
-      <c r="C220" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B221" s="5">
-        <v>1504</v>
-      </c>
-      <c r="C221" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B222" s="5">
-        <v>1505</v>
-      </c>
-      <c r="C222" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B223" s="5">
-        <v>1506</v>
-      </c>
-      <c r="C223" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B224" s="5">
-        <v>1507</v>
-      </c>
-      <c r="C224" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B225" s="5">
-        <v>1508</v>
-      </c>
-      <c r="C225" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B226" s="5">
-        <v>1509</v>
-      </c>
-      <c r="C226" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B227" s="5">
-        <v>1510</v>
-      </c>
-      <c r="C227" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B228" s="5">
-        <v>1511</v>
-      </c>
-      <c r="C228" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B229" s="5">
-        <v>1512</v>
-      </c>
-      <c r="C229" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>326</v>
-      </c>
-      <c r="B234" s="5">
-        <v>1600</v>
-      </c>
-      <c r="C234" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B235" s="5">
-        <v>1601</v>
-      </c>
-      <c r="C235" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B236" s="5">
-        <v>1602</v>
-      </c>
-      <c r="C236" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B237" s="5">
-        <v>1603</v>
-      </c>
-      <c r="C237" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B238" s="5">
-        <v>1604</v>
-      </c>
-      <c r="C238" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B239" s="5">
-        <v>1605</v>
-      </c>
-      <c r="C239" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B240" s="5">
-        <v>1606</v>
-      </c>
-      <c r="C240" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B241" s="5">
-        <v>1607</v>
-      </c>
-      <c r="C241" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B242" s="5">
-        <v>1608</v>
-      </c>
-      <c r="C242" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B243" s="5">
-        <v>1609</v>
-      </c>
-      <c r="C243" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B244" s="5">
-        <v>1610</v>
-      </c>
-      <c r="C244" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B245" s="5">
-        <v>1611</v>
-      </c>
-      <c r="C245" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B246" s="5">
-        <v>1612</v>
-      </c>
-      <c r="C246" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B247" s="5">
-        <v>1613</v>
-      </c>
-      <c r="C247" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B248" s="5">
-        <v>1614</v>
-      </c>
-      <c r="C248" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B249" s="5">
-        <v>1615</v>
-      </c>
-      <c r="C249" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B250" s="5">
-        <v>1616</v>
-      </c>
-      <c r="C250" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B251" s="5">
-        <v>1617</v>
-      </c>
-      <c r="C251" t="s">
-        <v>345</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE5472B-895F-4E25-8ACB-6104E5BA8AAC}">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4250,7 +3707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G182"/>
   <sheetViews>
@@ -4295,7 +3752,7 @@
         <v>141</v>
       </c>
       <c r="B2" s="5">
-        <f>Status!B2</f>
+        <f>[1]Status!B2</f>
         <v>-1</v>
       </c>
       <c r="C2" t="s">
@@ -4308,7 +3765,7 @@
         <v>122</v>
       </c>
       <c r="F2" t="str">
-        <f>Status!C2</f>
+        <f>[1]Status!C2</f>
         <v>Error desconocido</v>
       </c>
       <c r="G2" t="s">
@@ -4320,7 +3777,7 @@
         <v>141</v>
       </c>
       <c r="B3" s="5">
-        <f>Status!B3</f>
+        <f>[1]Status!B3</f>
         <v>0</v>
       </c>
       <c r="C3" t="s">
@@ -4333,7 +3790,7 @@
         <v>122</v>
       </c>
       <c r="F3" t="str">
-        <f>Status!C3</f>
+        <f>[1]Status!C3</f>
         <v>Operación Exitosa</v>
       </c>
       <c r="G3" t="s">
@@ -4345,7 +3802,7 @@
         <v>141</v>
       </c>
       <c r="B4" s="5">
-        <f>Status!B4</f>
+        <f>[1]Status!B4</f>
         <v>1</v>
       </c>
       <c r="C4" t="s">
@@ -4358,7 +3815,7 @@
         <v>122</v>
       </c>
       <c r="F4" t="str">
-        <f>Status!C4</f>
+        <f>[1]Status!C4</f>
         <v>La sesión ha expirado</v>
       </c>
       <c r="G4" t="s">
@@ -4370,7 +3827,7 @@
         <v>141</v>
       </c>
       <c r="B5" s="5">
-        <f>Status!B5</f>
+        <f>[1]Status!B5</f>
         <v>2</v>
       </c>
       <c r="C5" t="s">
@@ -4383,7 +3840,7 @@
         <v>122</v>
       </c>
       <c r="F5" t="str">
-        <f>Status!C5</f>
+        <f>[1]Status!C5</f>
         <v>Sesión duplicada</v>
       </c>
       <c r="G5" t="s">
@@ -4395,7 +3852,7 @@
         <v>141</v>
       </c>
       <c r="B6" s="5">
-        <f>Status!B6</f>
+        <f>[1]Status!B6</f>
         <v>3</v>
       </c>
       <c r="C6" t="s">
@@ -4408,7 +3865,7 @@
         <v>122</v>
       </c>
       <c r="F6" t="str">
-        <f>Status!C6</f>
+        <f>[1]Status!C6</f>
         <v>Credenciales invalidas</v>
       </c>
       <c r="G6" t="s">
@@ -4420,7 +3877,7 @@
         <v>141</v>
       </c>
       <c r="B7" s="5">
-        <f>Status!B7</f>
+        <f>[1]Status!B7</f>
         <v>4</v>
       </c>
       <c r="C7" t="s">
@@ -4433,7 +3890,7 @@
         <v>122</v>
       </c>
       <c r="F7" t="str">
-        <f>Status!C7</f>
+        <f>[1]Status!C7</f>
         <v>No se encontró la sesión</v>
       </c>
       <c r="G7" t="s">
@@ -4445,7 +3902,7 @@
         <v>141</v>
       </c>
       <c r="B8" s="5">
-        <f>Status!B8</f>
+        <f>[1]Status!B8</f>
         <v>5</v>
       </c>
       <c r="C8" t="s">
@@ -4458,7 +3915,7 @@
         <v>122</v>
       </c>
       <c r="F8" t="str">
-        <f>Status!C8</f>
+        <f>[1]Status!C8</f>
         <v>Información de sesión incompleta</v>
       </c>
       <c r="G8" t="s">
@@ -4470,7 +3927,7 @@
         <v>141</v>
       </c>
       <c r="B9" s="5">
-        <f>Status!B9</f>
+        <f>[1]Status!B9</f>
         <v>6</v>
       </c>
       <c r="C9" t="s">
@@ -4483,7 +3940,7 @@
         <v>122</v>
       </c>
       <c r="F9" t="str">
-        <f>Status!C9</f>
+        <f>[1]Status!C9</f>
         <v>Sesión no valida</v>
       </c>
       <c r="G9" t="s">
@@ -4495,7 +3952,7 @@
         <v>141</v>
       </c>
       <c r="B10" s="5">
-        <f>Status!B10</f>
+        <f>[1]Status!B10</f>
         <v>7</v>
       </c>
       <c r="C10" t="s">
@@ -4508,7 +3965,7 @@
         <v>122</v>
       </c>
       <c r="F10" t="str">
-        <f>Status!C10</f>
+        <f>[1]Status!C10</f>
         <v>El usuario ha excedido el número de sesiones concurrentes</v>
       </c>
       <c r="G10" t="s">
@@ -4520,7 +3977,7 @@
         <v>141</v>
       </c>
       <c r="B11" s="5">
-        <f>Status!B11</f>
+        <f>[1]Status!B11</f>
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -4533,7 +3990,7 @@
         <v>122</v>
       </c>
       <c r="F11" t="str">
-        <f>Status!C11</f>
+        <f>[1]Status!C11</f>
         <v>No se pudo cerrar la sesión</v>
       </c>
       <c r="G11" t="s">
@@ -4545,7 +4002,7 @@
         <v>141</v>
       </c>
       <c r="B12" s="5">
-        <f>Status!B12</f>
+        <f>[1]Status!B12</f>
         <v>9</v>
       </c>
       <c r="C12" t="s">
@@ -4558,7 +4015,7 @@
         <v>122</v>
       </c>
       <c r="F12" t="str">
-        <f>Status!C12</f>
+        <f>[1]Status!C12</f>
         <v>No se pudo iniciar la sesión</v>
       </c>
       <c r="G12" t="s">
@@ -4570,7 +4027,7 @@
         <v>141</v>
       </c>
       <c r="B13" s="5">
-        <f>Status!B13</f>
+        <f>[1]Status!B13</f>
         <v>10</v>
       </c>
       <c r="C13" t="s">
@@ -4583,7 +4040,7 @@
         <v>122</v>
       </c>
       <c r="F13" t="str">
-        <f>Status!C13</f>
+        <f>[1]Status!C13</f>
         <v>El número de usuarios excede el máximo permitido</v>
       </c>
       <c r="G13" t="s">
@@ -4595,7 +4052,7 @@
         <v>141</v>
       </c>
       <c r="B16" s="5">
-        <f>Status!B16</f>
+        <f>[1]Status!B16</f>
         <v>101</v>
       </c>
       <c r="C16" t="s">
@@ -4608,7 +4065,7 @@
         <v>122</v>
       </c>
       <c r="F16" t="str">
-        <f>Status!C16</f>
+        <f>[1]Status!C16</f>
         <v>No se encontró al usuario con los datos proporcionados</v>
       </c>
       <c r="G16" t="s">
@@ -4620,7 +4077,7 @@
         <v>141</v>
       </c>
       <c r="B17" s="5">
-        <f>Status!B17</f>
+        <f>[1]Status!B17</f>
         <v>102</v>
       </c>
       <c r="C17" t="s">
@@ -4633,7 +4090,7 @@
         <v>122</v>
       </c>
       <c r="F17" t="str">
-        <f>Status!C17</f>
+        <f>[1]Status!C17</f>
         <v>Hay más de un usuario con los datos proporcionados</v>
       </c>
       <c r="G17" t="s">
@@ -4645,7 +4102,7 @@
         <v>141</v>
       </c>
       <c r="B18" s="5">
-        <f>Status!B18</f>
+        <f>[1]Status!B18</f>
         <v>103</v>
       </c>
       <c r="C18" t="s">
@@ -4658,7 +4115,7 @@
         <v>122</v>
       </c>
       <c r="F18" t="str">
-        <f>Status!C18</f>
+        <f>[1]Status!C18</f>
         <v>La contraseña no cumple con los requisitos</v>
       </c>
       <c r="G18" t="s">
@@ -4670,7 +4127,7 @@
         <v>141</v>
       </c>
       <c r="B19" s="5">
-        <f>Status!B19</f>
+        <f>[1]Status!B19</f>
         <v>104</v>
       </c>
       <c r="C19" t="s">
@@ -4683,7 +4140,7 @@
         <v>122</v>
       </c>
       <c r="F19" t="str">
-        <f>Status!C19</f>
+        <f>[1]Status!C19</f>
         <v>Error al codificar la contraseña del usuario</v>
       </c>
       <c r="G19" t="s">
@@ -4695,7 +4152,7 @@
         <v>141</v>
       </c>
       <c r="B20" s="5">
-        <f>Status!B20</f>
+        <f>[1]Status!B20</f>
         <v>105</v>
       </c>
       <c r="C20" t="s">
@@ -4708,7 +4165,7 @@
         <v>122</v>
       </c>
       <c r="F20" t="str">
-        <f>Status!C20</f>
+        <f>[1]Status!C20</f>
         <v>El usuario no tiene los datos necesarios para verificar la contraseña</v>
       </c>
       <c r="G20" t="s">
@@ -4720,7 +4177,7 @@
         <v>141</v>
       </c>
       <c r="B21" s="5">
-        <f>Status!B21</f>
+        <f>[1]Status!B21</f>
         <v>106</v>
       </c>
       <c r="C21" t="s">
@@ -4733,7 +4190,7 @@
         <v>122</v>
       </c>
       <c r="F21" t="str">
-        <f>Status!C21</f>
+        <f>[1]Status!C21</f>
         <v>Error al verificar la contraseña del usuario</v>
       </c>
       <c r="G21" t="s">
@@ -4745,7 +4202,7 @@
         <v>141</v>
       </c>
       <c r="B22" s="5">
-        <f>Status!B22</f>
+        <f>[1]Status!B22</f>
         <v>107</v>
       </c>
       <c r="C22" t="s">
@@ -4758,7 +4215,7 @@
         <v>122</v>
       </c>
       <c r="F22" t="str">
-        <f>Status!C22</f>
+        <f>[1]Status!C22</f>
         <v>El usuario no tiene los datos necesarios para actualizar la contraseña</v>
       </c>
       <c r="G22" t="s">
@@ -4770,7 +4227,7 @@
         <v>141</v>
       </c>
       <c r="B23" s="5">
-        <f>Status!B23</f>
+        <f>[1]Status!B23</f>
         <v>108</v>
       </c>
       <c r="C23" t="s">
@@ -4783,7 +4240,7 @@
         <v>122</v>
       </c>
       <c r="F23" t="str">
-        <f>Status!C23</f>
+        <f>[1]Status!C23</f>
         <v>Error al intentar actualizar la contraseña del usuario</v>
       </c>
       <c r="G23" t="s">
@@ -4795,7 +4252,7 @@
         <v>141</v>
       </c>
       <c r="B24" s="5">
-        <f>Status!B24</f>
+        <f>[1]Status!B24</f>
         <v>109</v>
       </c>
       <c r="C24" t="s">
@@ -4808,7 +4265,7 @@
         <v>122</v>
       </c>
       <c r="F24" t="str">
-        <f>Status!C24</f>
+        <f>[1]Status!C24</f>
         <v>El DN del usuario no puede ser nulo o estar vacío</v>
       </c>
       <c r="G24" t="s">
@@ -4820,7 +4277,7 @@
         <v>141</v>
       </c>
       <c r="B25" s="5">
-        <f>Status!B25</f>
+        <f>[1]Status!B25</f>
         <v>110</v>
       </c>
       <c r="C25" t="s">
@@ -4833,7 +4290,7 @@
         <v>122</v>
       </c>
       <c r="F25" t="str">
-        <f>Status!C25</f>
+        <f>[1]Status!C25</f>
         <v>Error al intentar eliminar el usuario</v>
       </c>
       <c r="G25" t="s">
@@ -4845,7 +4302,7 @@
         <v>141</v>
       </c>
       <c r="B26" s="5">
-        <f>Status!B26</f>
+        <f>[1]Status!B26</f>
         <v>111</v>
       </c>
       <c r="C26" t="s">
@@ -4858,7 +4315,7 @@
         <v>122</v>
       </c>
       <c r="F26" t="str">
-        <f>Status!C26</f>
+        <f>[1]Status!C26</f>
         <v>El query no puede ser nulo o estar vacío</v>
       </c>
       <c r="G26" t="s">
@@ -4870,7 +4327,7 @@
         <v>141</v>
       </c>
       <c r="B27" s="5">
-        <f>Status!B27</f>
+        <f>[1]Status!B27</f>
         <v>112</v>
       </c>
       <c r="C27" t="s">
@@ -4883,7 +4340,7 @@
         <v>122</v>
       </c>
       <c r="F27" t="str">
-        <f>Status!C27</f>
+        <f>[1]Status!C27</f>
         <v>Error al realizar la búsqueda con filtro</v>
       </c>
       <c r="G27" t="s">
@@ -4895,7 +4352,7 @@
         <v>141</v>
       </c>
       <c r="B28" s="5">
-        <f>Status!B28</f>
+        <f>[1]Status!B28</f>
         <v>113</v>
       </c>
       <c r="C28" t="s">
@@ -4908,7 +4365,7 @@
         <v>122</v>
       </c>
       <c r="F28" t="str">
-        <f>Status!C28</f>
+        <f>[1]Status!C28</f>
         <v>El Dominio del usuario no puede ser nulo o estar vacío</v>
       </c>
       <c r="G28" t="s">
@@ -4920,7 +4377,7 @@
         <v>141</v>
       </c>
       <c r="B29" s="5">
-        <f>Status!B29</f>
+        <f>[1]Status!B29</f>
         <v>114</v>
       </c>
       <c r="C29" t="s">
@@ -4933,7 +4390,7 @@
         <v>122</v>
       </c>
       <c r="F29" t="str">
-        <f>Status!C29</f>
+        <f>[1]Status!C29</f>
         <v>El UID del usuario no puede ser nulo o estar vacío</v>
       </c>
       <c r="G29" t="s">
@@ -4945,7 +4402,7 @@
         <v>141</v>
       </c>
       <c r="B30" s="5">
-        <f>Status!B30</f>
+        <f>[1]Status!B30</f>
         <v>115</v>
       </c>
       <c r="C30" t="s">
@@ -4958,7 +4415,7 @@
         <v>122</v>
       </c>
       <c r="F30" t="str">
-        <f>Status!C30</f>
+        <f>[1]Status!C30</f>
         <v>Error al listar los usuarios</v>
       </c>
       <c r="G30" t="s">
@@ -4970,7 +4427,7 @@
         <v>141</v>
       </c>
       <c r="B31" s="5">
-        <f>Status!B31</f>
+        <f>[1]Status!B31</f>
         <v>116</v>
       </c>
       <c r="C31" t="s">
@@ -4983,7 +4440,7 @@
         <v>122</v>
       </c>
       <c r="F31" t="str">
-        <f>Status!C31</f>
+        <f>[1]Status!C31</f>
         <v>El usuario no tiene los datos necesarios para insertarlo</v>
       </c>
       <c r="G31" t="s">
@@ -4995,7 +4452,7 @@
         <v>141</v>
       </c>
       <c r="B32" s="5">
-        <f>Status!B32</f>
+        <f>[1]Status!B32</f>
         <v>117</v>
       </c>
       <c r="C32" t="s">
@@ -5008,7 +4465,7 @@
         <v>122</v>
       </c>
       <c r="F32" t="str">
-        <f>Status!C32</f>
+        <f>[1]Status!C32</f>
         <v>Error al intentar insertar el usuario</v>
       </c>
       <c r="G32" t="s">
@@ -5020,7 +4477,7 @@
         <v>141</v>
       </c>
       <c r="B33" s="5">
-        <f>Status!B33</f>
+        <f>[1]Status!B33</f>
         <v>118</v>
       </c>
       <c r="C33" t="s">
@@ -5033,7 +4490,7 @@
         <v>122</v>
       </c>
       <c r="F33" t="str">
-        <f>Status!C33</f>
+        <f>[1]Status!C33</f>
         <v>No se pudo eliminar el usuario</v>
       </c>
       <c r="G33" t="s">
@@ -5045,7 +4502,7 @@
         <v>141</v>
       </c>
       <c r="B34" s="5">
-        <f>Status!B34</f>
+        <f>[1]Status!B34</f>
         <v>119</v>
       </c>
       <c r="C34" t="s">
@@ -5058,7 +4515,7 @@
         <v>122</v>
       </c>
       <c r="F34" t="str">
-        <f>Status!C34</f>
+        <f>[1]Status!C34</f>
         <v>No se pudo insertar o actualizar el usuario</v>
       </c>
       <c r="G34" t="s">
@@ -5070,7 +4527,7 @@
         <v>141</v>
       </c>
       <c r="B35" s="5">
-        <f>Status!B35</f>
+        <f>[1]Status!B35</f>
         <v>120</v>
       </c>
       <c r="C35" t="s">
@@ -5083,7 +4540,7 @@
         <v>122</v>
       </c>
       <c r="F35" t="str">
-        <f>Status!C35</f>
+        <f>[1]Status!C35</f>
         <v>El usuario no tiene los datos necesarios para realizar la búsqueda</v>
       </c>
       <c r="G35" t="s">
@@ -5095,7 +4552,7 @@
         <v>141</v>
       </c>
       <c r="B36" s="5">
-        <f>Status!B36</f>
+        <f>[1]Status!B36</f>
         <v>121</v>
       </c>
       <c r="C36" t="s">
@@ -5108,7 +4565,7 @@
         <v>122</v>
       </c>
       <c r="F36" t="str">
-        <f>Status!C36</f>
+        <f>[1]Status!C36</f>
         <v>El usuario no existe en la Base de Datos</v>
       </c>
       <c r="G36" t="s">
@@ -5120,7 +4577,7 @@
         <v>141</v>
       </c>
       <c r="B40" s="5">
-        <f>Status!B40</f>
+        <f>[1]Status!B40</f>
         <v>201</v>
       </c>
       <c r="C40" t="s">
@@ -5133,7 +4590,7 @@
         <v>122</v>
       </c>
       <c r="F40" t="str">
-        <f>Status!C40</f>
+        <f>[1]Status!C40</f>
         <v>No se encontró el grupo con los datos proporcionados</v>
       </c>
       <c r="G40" t="s">
@@ -5145,7 +4602,7 @@
         <v>141</v>
       </c>
       <c r="B41" s="5">
-        <f>Status!B41</f>
+        <f>[1]Status!B41</f>
         <v>202</v>
       </c>
       <c r="C41" t="s">
@@ -5158,7 +4615,7 @@
         <v>122</v>
       </c>
       <c r="F41" t="str">
-        <f>Status!C41</f>
+        <f>[1]Status!C41</f>
         <v>Hay más de un grupo con los datos proporcionados</v>
       </c>
       <c r="G41" t="s">
@@ -5170,7 +4627,7 @@
         <v>141</v>
       </c>
       <c r="B42" s="5">
-        <f>Status!B42</f>
+        <f>[1]Status!B42</f>
         <v>203</v>
       </c>
       <c r="C42" t="s">
@@ -5183,7 +4640,7 @@
         <v>122</v>
       </c>
       <c r="F42" t="str">
-        <f>Status!C42</f>
+        <f>[1]Status!C42</f>
         <v>El DN del grupo no puede ser nulo o estar vacío</v>
       </c>
       <c r="G42" t="s">
@@ -5195,7 +4652,7 @@
         <v>141</v>
       </c>
       <c r="B43" s="5">
-        <f>Status!B43</f>
+        <f>[1]Status!B43</f>
         <v>204</v>
       </c>
       <c r="C43" t="s">
@@ -5208,7 +4665,7 @@
         <v>122</v>
       </c>
       <c r="F43" t="str">
-        <f>Status!C43</f>
+        <f>[1]Status!C43</f>
         <v>Error al intentar eliminar el grupo</v>
       </c>
       <c r="G43" t="s">
@@ -5220,7 +4677,7 @@
         <v>141</v>
       </c>
       <c r="B44" s="5">
-        <f>Status!B44</f>
+        <f>[1]Status!B44</f>
         <v>205</v>
       </c>
       <c r="C44" t="s">
@@ -5233,7 +4690,7 @@
         <v>122</v>
       </c>
       <c r="F44" t="str">
-        <f>Status!C44</f>
+        <f>[1]Status!C44</f>
         <v>Error al listar los grupos</v>
       </c>
       <c r="G44" t="s">
@@ -5245,7 +4702,7 @@
         <v>141</v>
       </c>
       <c r="B45" s="5">
-        <f>Status!B45</f>
+        <f>[1]Status!B45</f>
         <v>206</v>
       </c>
       <c r="C45" t="s">
@@ -5258,7 +4715,7 @@
         <v>122</v>
       </c>
       <c r="F45" t="str">
-        <f>Status!C45</f>
+        <f>[1]Status!C45</f>
         <v>El grupo no tiene los datos necesarios para insertarlo</v>
       </c>
       <c r="G45" t="s">
@@ -5270,7 +4727,7 @@
         <v>141</v>
       </c>
       <c r="B46" s="5">
-        <f>Status!B46</f>
+        <f>[1]Status!B46</f>
         <v>207</v>
       </c>
       <c r="C46" t="s">
@@ -5283,7 +4740,7 @@
         <v>122</v>
       </c>
       <c r="F46" t="str">
-        <f>Status!C46</f>
+        <f>[1]Status!C46</f>
         <v>Error al insertar el grupo</v>
       </c>
       <c r="G46" t="s">
@@ -5295,7 +4752,7 @@
         <v>141</v>
       </c>
       <c r="B47" s="5">
-        <f>Status!B47</f>
+        <f>[1]Status!B47</f>
         <v>208</v>
       </c>
       <c r="C47" t="s">
@@ -5308,7 +4765,7 @@
         <v>122</v>
       </c>
       <c r="F47" t="str">
-        <f>Status!C47</f>
+        <f>[1]Status!C47</f>
         <v>El query no puede ser nulo o estar vacío</v>
       </c>
       <c r="G47" t="s">
@@ -5320,7 +4777,7 @@
         <v>141</v>
       </c>
       <c r="B48" s="5">
-        <f>Status!B48</f>
+        <f>[1]Status!B48</f>
         <v>209</v>
       </c>
       <c r="C48" t="s">
@@ -5333,7 +4790,7 @@
         <v>122</v>
       </c>
       <c r="F48" t="str">
-        <f>Status!C48</f>
+        <f>[1]Status!C48</f>
         <v>Error al realizar la búsqueda con filtro</v>
       </c>
       <c r="G48" t="s">
@@ -5345,7 +4802,7 @@
         <v>141</v>
       </c>
       <c r="B49" s="5">
-        <f>Status!B49</f>
+        <f>[1]Status!B49</f>
         <v>210</v>
       </c>
       <c r="C49" t="s">
@@ -5358,7 +4815,7 @@
         <v>122</v>
       </c>
       <c r="F49" t="str">
-        <f>Status!C49</f>
+        <f>[1]Status!C49</f>
         <v>El Dominio del grupo no puede ser nulo o estar vacío</v>
       </c>
       <c r="G49" t="s">
@@ -5370,7 +4827,7 @@
         <v>141</v>
       </c>
       <c r="B50" s="5">
-        <f>Status!B50</f>
+        <f>[1]Status!B50</f>
         <v>211</v>
       </c>
       <c r="C50" t="s">
@@ -5383,7 +4840,7 @@
         <v>122</v>
       </c>
       <c r="F50" t="str">
-        <f>Status!C50</f>
+        <f>[1]Status!C50</f>
         <v>El CN del grupo no puede ser nulo o estar vacío</v>
       </c>
       <c r="G50" t="s">
@@ -5395,7 +4852,7 @@
         <v>141</v>
       </c>
       <c r="B51" s="5">
-        <f>Status!B51</f>
+        <f>[1]Status!B51</f>
         <v>212</v>
       </c>
       <c r="C51" t="s">
@@ -5408,7 +4865,7 @@
         <v>122</v>
       </c>
       <c r="F51" t="str">
-        <f>Status!C51</f>
+        <f>[1]Status!C51</f>
         <v>Error al buscar los grupos del usuario</v>
       </c>
       <c r="G51" t="s">
@@ -5420,7 +4877,7 @@
         <v>141</v>
       </c>
       <c r="B52" s="5">
-        <f>Status!B52</f>
+        <f>[1]Status!B52</f>
         <v>213</v>
       </c>
       <c r="C52" t="s">
@@ -5433,7 +4890,7 @@
         <v>122</v>
       </c>
       <c r="F52" t="str">
-        <f>Status!C52</f>
+        <f>[1]Status!C52</f>
         <v>Error al buscar los miembros del grupo</v>
       </c>
       <c r="G52" t="s">
@@ -5445,7 +4902,7 @@
         <v>141</v>
       </c>
       <c r="B53" s="5">
-        <f>Status!B53</f>
+        <f>[1]Status!B53</f>
         <v>214</v>
       </c>
       <c r="C53" t="s">
@@ -5458,7 +4915,7 @@
         <v>122</v>
       </c>
       <c r="F53" t="str">
-        <f>Status!C53</f>
+        <f>[1]Status!C53</f>
         <v>El usuario y/o grupos no pueden ser nulo</v>
       </c>
       <c r="G53" t="s">
@@ -5470,7 +4927,7 @@
         <v>141</v>
       </c>
       <c r="B54" s="5">
-        <f>Status!B54</f>
+        <f>[1]Status!B54</f>
         <v>215</v>
       </c>
       <c r="C54" t="s">
@@ -5483,7 +4940,7 @@
         <v>122</v>
       </c>
       <c r="F54" t="str">
-        <f>Status!C54</f>
+        <f>[1]Status!C54</f>
         <v>No se pudo eliminar el grupo</v>
       </c>
       <c r="G54" t="s">
@@ -5495,7 +4952,7 @@
         <v>141</v>
       </c>
       <c r="B55" s="5">
-        <f>Status!B55</f>
+        <f>[1]Status!B55</f>
         <v>216</v>
       </c>
       <c r="C55" t="s">
@@ -5508,7 +4965,7 @@
         <v>122</v>
       </c>
       <c r="F55" t="str">
-        <f>Status!C55</f>
+        <f>[1]Status!C55</f>
         <v>No se pudo insertar o actualizar el grupo</v>
       </c>
       <c r="G55" t="s">
@@ -5520,7 +4977,7 @@
         <v>141</v>
       </c>
       <c r="B58" s="5">
-        <f>Status!B58</f>
+        <f>[1]Status!B58</f>
         <v>301</v>
       </c>
       <c r="C58" t="s">
@@ -5533,7 +4990,7 @@
         <v>122</v>
       </c>
       <c r="F58" t="str">
-        <f>Status!C58</f>
+        <f>[1]Status!C58</f>
         <v>La OU no tiene los datos necesarios para insertarla</v>
       </c>
       <c r="G58" t="s">
@@ -5545,7 +5002,7 @@
         <v>141</v>
       </c>
       <c r="B59" s="5">
-        <f>Status!B59</f>
+        <f>[1]Status!B59</f>
         <v>302</v>
       </c>
       <c r="C59" t="s">
@@ -5558,7 +5015,7 @@
         <v>122</v>
       </c>
       <c r="F59" t="str">
-        <f>Status!C59</f>
+        <f>[1]Status!C59</f>
         <v>Error al insertar la Organization Unit</v>
       </c>
       <c r="G59" t="s">
@@ -5570,7 +5027,7 @@
         <v>141</v>
       </c>
       <c r="B60" s="5">
-        <f>Status!B60</f>
+        <f>[1]Status!B60</f>
         <v>303</v>
       </c>
       <c r="C60" t="s">
@@ -5583,7 +5040,7 @@
         <v>122</v>
       </c>
       <c r="F60" t="str">
-        <f>Status!C60</f>
+        <f>[1]Status!C60</f>
         <v>La OU no tiene los datos necesarios para eliminarla</v>
       </c>
       <c r="G60" t="s">
@@ -5595,7 +5052,7 @@
         <v>141</v>
       </c>
       <c r="B61" s="5">
-        <f>Status!B61</f>
+        <f>[1]Status!B61</f>
         <v>304</v>
       </c>
       <c r="C61" t="s">
@@ -5608,7 +5065,7 @@
         <v>122</v>
       </c>
       <c r="F61" t="str">
-        <f>Status!C61</f>
+        <f>[1]Status!C61</f>
         <v>Error al eliminar la Organization Unit</v>
       </c>
       <c r="G61" t="s">
@@ -5620,7 +5077,7 @@
         <v>141</v>
       </c>
       <c r="B62" s="5">
-        <f>Status!B62</f>
+        <f>[1]Status!B62</f>
         <v>305</v>
       </c>
       <c r="C62" t="s">
@@ -5633,7 +5090,7 @@
         <v>122</v>
       </c>
       <c r="F62" t="str">
-        <f>Status!C62</f>
+        <f>[1]Status!C62</f>
         <v>El Base DN no puede ser nulo o estar vacío</v>
       </c>
       <c r="G62" t="s">
@@ -5645,7 +5102,7 @@
         <v>141</v>
       </c>
       <c r="B63" s="5">
-        <f>Status!B63</f>
+        <f>[1]Status!B63</f>
         <v>306</v>
       </c>
       <c r="C63" t="s">
@@ -5658,7 +5115,7 @@
         <v>122</v>
       </c>
       <c r="F63" t="str">
-        <f>Status!C63</f>
+        <f>[1]Status!C63</f>
         <v>Error al listar los elementos</v>
       </c>
       <c r="G63" t="s">
@@ -5670,7 +5127,7 @@
         <v>141</v>
       </c>
       <c r="B64" s="5">
-        <f>Status!B64</f>
+        <f>[1]Status!B64</f>
         <v>307</v>
       </c>
       <c r="C64" t="s">
@@ -5683,7 +5140,7 @@
         <v>122</v>
       </c>
       <c r="F64" t="str">
-        <f>Status!C64</f>
+        <f>[1]Status!C64</f>
         <v>No se pudo insertar la Organization Unit</v>
       </c>
       <c r="G64" t="s">
@@ -5695,7 +5152,7 @@
         <v>141</v>
       </c>
       <c r="B65" s="5">
-        <f>Status!B65</f>
+        <f>[1]Status!B65</f>
         <v>308</v>
       </c>
       <c r="C65" t="s">
@@ -5708,7 +5165,7 @@
         <v>122</v>
       </c>
       <c r="F65" t="str">
-        <f>Status!C65</f>
+        <f>[1]Status!C65</f>
         <v>No se pudo eliminar la Organization Unit</v>
       </c>
       <c r="G65" t="s">
@@ -5720,7 +5177,7 @@
         <v>141</v>
       </c>
       <c r="B68" s="5">
-        <f>Status!B68</f>
+        <f>[1]Status!B68</f>
         <v>401</v>
       </c>
       <c r="C68" t="s">
@@ -5733,7 +5190,7 @@
         <v>122</v>
       </c>
       <c r="F68" t="str">
-        <f>Status!C68</f>
+        <f>[1]Status!C68</f>
         <v>No se encontró el objeto</v>
       </c>
       <c r="G68" t="s">
@@ -5745,7 +5202,7 @@
         <v>141</v>
       </c>
       <c r="B69" s="5">
-        <f>Status!B69</f>
+        <f>[1]Status!B69</f>
         <v>402</v>
       </c>
       <c r="C69" t="s">
@@ -5758,7 +5215,7 @@
         <v>122</v>
       </c>
       <c r="F69" t="str">
-        <f>Status!C69</f>
+        <f>[1]Status!C69</f>
         <v>Error al obtener el objeto</v>
       </c>
       <c r="G69" t="s">
@@ -5770,7 +5227,7 @@
         <v>141</v>
       </c>
       <c r="B70" s="5">
-        <f>Status!B70</f>
+        <f>[1]Status!B70</f>
         <v>403</v>
       </c>
       <c r="C70" t="s">
@@ -5783,7 +5240,7 @@
         <v>122</v>
       </c>
       <c r="F70" t="str">
-        <f>Status!C70</f>
+        <f>[1]Status!C70</f>
         <v>No se encontraron los objetos con la información proporcionada</v>
       </c>
       <c r="G70" t="s">
@@ -5795,7 +5252,7 @@
         <v>141</v>
       </c>
       <c r="B71" s="5">
-        <f>Status!B71</f>
+        <f>[1]Status!B71</f>
         <v>404</v>
       </c>
       <c r="C71" t="s">
@@ -5808,7 +5265,7 @@
         <v>122</v>
       </c>
       <c r="F71" t="str">
-        <f>Status!C71</f>
+        <f>[1]Status!C71</f>
         <v>El objeto no tiene los datos necesarios para insertarlo</v>
       </c>
       <c r="G71" t="s">
@@ -5820,7 +5277,7 @@
         <v>141</v>
       </c>
       <c r="B72" s="5">
-        <f>Status!B72</f>
+        <f>[1]Status!B72</f>
         <v>405</v>
       </c>
       <c r="C72" t="s">
@@ -5833,7 +5290,7 @@
         <v>122</v>
       </c>
       <c r="F72" t="str">
-        <f>Status!C72</f>
+        <f>[1]Status!C72</f>
         <v>No se puede crear el objeto. Ya existe un objeto con el mismo nombre</v>
       </c>
       <c r="G72" t="s">
@@ -5845,7 +5302,7 @@
         <v>141</v>
       </c>
       <c r="B73" s="5">
-        <f>Status!B73</f>
+        <f>[1]Status!B73</f>
         <v>406</v>
       </c>
       <c r="C73" t="s">
@@ -5858,7 +5315,7 @@
         <v>122</v>
       </c>
       <c r="F73" t="str">
-        <f>Status!C73</f>
+        <f>[1]Status!C73</f>
         <v>El contenido del documento es nulo o viene vacío</v>
       </c>
       <c r="G73" t="s">
@@ -5870,7 +5327,7 @@
         <v>141</v>
       </c>
       <c r="B74" s="5">
-        <f>Status!B74</f>
+        <f>[1]Status!B74</f>
         <v>407</v>
       </c>
       <c r="C74" t="s">
@@ -5883,7 +5340,7 @@
         <v>122</v>
       </c>
       <c r="F74" t="str">
-        <f>Status!C74</f>
+        <f>[1]Status!C74</f>
         <v>Error al guardar el archivo</v>
       </c>
       <c r="G74" t="s">
@@ -5895,7 +5352,7 @@
         <v>141</v>
       </c>
       <c r="B75" s="5">
-        <f>Status!B75</f>
+        <f>[1]Status!B75</f>
         <v>408</v>
       </c>
       <c r="C75" t="s">
@@ -5908,7 +5365,7 @@
         <v>122</v>
       </c>
       <c r="F75" t="str">
-        <f>Status!C75</f>
+        <f>[1]Status!C75</f>
         <v>El directorio raíz en el File System no existe o no está vacío</v>
       </c>
       <c r="G75" t="s">
@@ -5920,7 +5377,7 @@
         <v>141</v>
       </c>
       <c r="B76" s="5">
-        <f>Status!B76</f>
+        <f>[1]Status!B76</f>
         <v>409</v>
       </c>
       <c r="C76" t="s">
@@ -5933,7 +5390,7 @@
         <v>122</v>
       </c>
       <c r="F76" t="str">
-        <f>Status!C76</f>
+        <f>[1]Status!C76</f>
         <v>No se tienen los datos necesarios para el directorio raíz en el File System</v>
       </c>
       <c r="G76" t="s">
@@ -5945,7 +5402,7 @@
         <v>141</v>
       </c>
       <c r="B77" s="5">
-        <f>Status!B77</f>
+        <f>[1]Status!B77</f>
         <v>410</v>
       </c>
       <c r="C77" t="s">
@@ -5958,7 +5415,7 @@
         <v>122</v>
       </c>
       <c r="F77" t="str">
-        <f>Status!C77</f>
+        <f>[1]Status!C77</f>
         <v>Error al crear el Storage Area</v>
       </c>
       <c r="G77" t="s">
@@ -5970,7 +5427,7 @@
         <v>141</v>
       </c>
       <c r="B78" s="5">
-        <f>Status!B78</f>
+        <f>[1]Status!B78</f>
         <v>411</v>
       </c>
       <c r="C78" t="s">
@@ -5983,7 +5440,7 @@
         <v>122</v>
       </c>
       <c r="F78" t="str">
-        <f>Status!C78</f>
+        <f>[1]Status!C78</f>
         <v>Los datos del objeto a crear no corresponden con los datos de su padre</v>
       </c>
       <c r="G78" t="s">
@@ -5995,7 +5452,7 @@
         <v>141</v>
       </c>
       <c r="B79" s="5">
-        <f>Status!B79</f>
+        <f>[1]Status!B79</f>
         <v>412</v>
       </c>
       <c r="C79" t="s">
@@ -6008,7 +5465,7 @@
         <v>122</v>
       </c>
       <c r="F79" t="str">
-        <f>Status!C79</f>
+        <f>[1]Status!C79</f>
         <v>No se encontró el dominio</v>
       </c>
       <c r="G79" t="s">
@@ -6020,7 +5477,7 @@
         <v>141</v>
       </c>
       <c r="B80" s="5">
-        <f>Status!B80</f>
+        <f>[1]Status!B80</f>
         <v>413</v>
       </c>
       <c r="C80" t="s">
@@ -6033,7 +5490,7 @@
         <v>122</v>
       </c>
       <c r="F80" t="str">
-        <f>Status!C80</f>
+        <f>[1]Status!C80</f>
         <v>No se encontró el Storage Area</v>
       </c>
       <c r="G80" t="s">
@@ -6045,7 +5502,7 @@
         <v>141</v>
       </c>
       <c r="B81" s="5">
-        <f>Status!B81</f>
+        <f>[1]Status!B81</f>
         <v>414</v>
       </c>
       <c r="C81" t="s">
@@ -6058,7 +5515,7 @@
         <v>122</v>
       </c>
       <c r="F81" t="str">
-        <f>Status!C81</f>
+        <f>[1]Status!C81</f>
         <v>Error al crear la Storage Policy</v>
       </c>
       <c r="G81" t="s">
@@ -6070,7 +5527,7 @@
         <v>141</v>
       </c>
       <c r="B82" s="5">
-        <f>Status!B82</f>
+        <f>[1]Status!B82</f>
         <v>415</v>
       </c>
       <c r="C82" t="s">
@@ -6083,7 +5540,7 @@
         <v>122</v>
       </c>
       <c r="F82" t="str">
-        <f>Status!C82</f>
+        <f>[1]Status!C82</f>
         <v>Error al crear el Documento</v>
       </c>
       <c r="G82" t="s">
@@ -6095,7 +5552,7 @@
         <v>141</v>
       </c>
       <c r="B83" s="5">
-        <f>Status!B83</f>
+        <f>[1]Status!B83</f>
         <v>416</v>
       </c>
       <c r="C83" t="s">
@@ -6108,7 +5565,7 @@
         <v>122</v>
       </c>
       <c r="F83" t="str">
-        <f>Status!C83</f>
+        <f>[1]Status!C83</f>
         <v>El contenido del documento excede el tamaño máximo permitido</v>
       </c>
       <c r="G83" t="s">
@@ -6120,7 +5577,7 @@
         <v>141</v>
       </c>
       <c r="B84" s="5">
-        <f>Status!B84</f>
+        <f>[1]Status!B84</f>
         <v>417</v>
       </c>
       <c r="C84" t="s">
@@ -6133,7 +5590,7 @@
         <v>122</v>
       </c>
       <c r="F84" t="str">
-        <f>Status!C84</f>
+        <f>[1]Status!C84</f>
         <v>No se encontró la Storage Policy</v>
       </c>
       <c r="G84" t="s">
@@ -6145,7 +5602,7 @@
         <v>141</v>
       </c>
       <c r="B85" s="5">
-        <f>Status!B85</f>
+        <f>[1]Status!B85</f>
         <v>418</v>
       </c>
       <c r="C85" t="s">
@@ -6158,7 +5615,7 @@
         <v>122</v>
       </c>
       <c r="F85" t="str">
-        <f>Status!C85</f>
+        <f>[1]Status!C85</f>
         <v>No se encontró la información para recuperar el contenido del documento</v>
       </c>
       <c r="G85" t="s">
@@ -6170,7 +5627,7 @@
         <v>141</v>
       </c>
       <c r="B86" s="5">
-        <f>Status!B86</f>
+        <f>[1]Status!B86</f>
         <v>419</v>
       </c>
       <c r="C86" t="s">
@@ -6183,7 +5640,7 @@
         <v>122</v>
       </c>
       <c r="F86" t="str">
-        <f>Status!C86</f>
+        <f>[1]Status!C86</f>
         <v>Error al guardar la información de la versión del documento</v>
       </c>
       <c r="G86" t="s">
@@ -6195,7 +5652,7 @@
         <v>141</v>
       </c>
       <c r="B87" s="5">
-        <f>Status!B87</f>
+        <f>[1]Status!B87</f>
         <v>420</v>
       </c>
       <c r="C87" t="s">
@@ -6208,7 +5665,7 @@
         <v>122</v>
       </c>
       <c r="F87" t="str">
-        <f>Status!C87</f>
+        <f>[1]Status!C87</f>
         <v>Error al guardar la información de la metadata del documento</v>
       </c>
       <c r="G87" t="s">
@@ -6220,7 +5677,7 @@
         <v>141</v>
       </c>
       <c r="B88" s="5">
-        <f>Status!B88</f>
+        <f>[1]Status!B88</f>
         <v>421</v>
       </c>
       <c r="C88" t="s">
@@ -6233,7 +5690,7 @@
         <v>122</v>
       </c>
       <c r="F88" t="str">
-        <f>Status!C88</f>
+        <f>[1]Status!C88</f>
         <v>Error al actualizar el status de las versiones anteriores del documento</v>
       </c>
       <c r="G88" t="s">
@@ -6245,7 +5702,7 @@
         <v>141</v>
       </c>
       <c r="B89" s="5">
-        <f>Status!B89</f>
+        <f>[1]Status!B89</f>
         <v>422</v>
       </c>
       <c r="C89" t="s">
@@ -6258,7 +5715,7 @@
         <v>122</v>
       </c>
       <c r="F89" t="str">
-        <f>Status!C89</f>
+        <f>[1]Status!C89</f>
         <v>El objeto no tiene los datos necesarios para agregarlo a favoritos</v>
       </c>
       <c r="G89" t="s">
@@ -6270,7 +5727,7 @@
         <v>141</v>
       </c>
       <c r="B90" s="5">
-        <f>Status!B90</f>
+        <f>[1]Status!B90</f>
         <v>423</v>
       </c>
       <c r="C90" t="s">
@@ -6283,7 +5740,7 @@
         <v>122</v>
       </c>
       <c r="F90" t="str">
-        <f>Status!C90</f>
+        <f>[1]Status!C90</f>
         <v>No se encontraron favoritos con la información proporcionada</v>
       </c>
       <c r="G90" t="s">
@@ -6295,7 +5752,7 @@
         <v>141</v>
       </c>
       <c r="B91" s="5">
-        <f>Status!B91</f>
+        <f>[1]Status!B91</f>
         <v>424</v>
       </c>
       <c r="C91" t="s">
@@ -6308,7 +5765,7 @@
         <v>122</v>
       </c>
       <c r="F91" t="str">
-        <f>Status!C91</f>
+        <f>[1]Status!C91</f>
         <v>No se tiene la información necesaria para mover la carpeta</v>
       </c>
       <c r="G91" t="s">
@@ -6320,7 +5777,7 @@
         <v>141</v>
       </c>
       <c r="B92" s="5">
-        <f>Status!B92</f>
+        <f>[1]Status!B92</f>
         <v>425</v>
       </c>
       <c r="C92" t="s">
@@ -6333,7 +5790,7 @@
         <v>122</v>
       </c>
       <c r="F92" t="str">
-        <f>Status!C92</f>
+        <f>[1]Status!C92</f>
         <v>No se tiene la información necesaria para copiar la carpeta</v>
       </c>
       <c r="G92" t="s">
@@ -6345,7 +5802,7 @@
         <v>141</v>
       </c>
       <c r="B93" s="5">
-        <f>Status!B93</f>
+        <f>[1]Status!B93</f>
         <v>426</v>
       </c>
       <c r="C93" t="s">
@@ -6358,7 +5815,7 @@
         <v>122</v>
       </c>
       <c r="F93" t="str">
-        <f>Status!C93</f>
+        <f>[1]Status!C93</f>
         <v>No se tiene la información necesaria para descargar la carpeta</v>
       </c>
       <c r="G93" t="s">
@@ -6370,7 +5827,7 @@
         <v>141</v>
       </c>
       <c r="B94" s="5">
-        <f>Status!B94</f>
+        <f>[1]Status!B94</f>
         <v>427</v>
       </c>
       <c r="C94" t="s">
@@ -6383,7 +5840,7 @@
         <v>122</v>
       </c>
       <c r="F94" t="str">
-        <f>Status!C94</f>
+        <f>[1]Status!C94</f>
         <v>No se definió el tipo de descarga de la carpeta</v>
       </c>
       <c r="G94" t="s">
@@ -6395,7 +5852,7 @@
         <v>141</v>
       </c>
       <c r="B95" s="5">
-        <f>Status!B95</f>
+        <f>[1]Status!B95</f>
         <v>428</v>
       </c>
       <c r="C95" t="s">
@@ -6408,7 +5865,7 @@
         <v>122</v>
       </c>
       <c r="F95" t="str">
-        <f>Status!C95</f>
+        <f>[1]Status!C95</f>
         <v>Error en la descarga de la carpeta</v>
       </c>
       <c r="G95" t="s">
@@ -6420,7 +5877,7 @@
         <v>141</v>
       </c>
       <c r="B96" s="5">
-        <f>Status!B96</f>
+        <f>[1]Status!B96</f>
         <v>429</v>
       </c>
       <c r="C96" t="s">
@@ -6433,7 +5890,7 @@
         <v>122</v>
       </c>
       <c r="F96" t="str">
-        <f>Status!C96</f>
+        <f>[1]Status!C96</f>
         <v>No se encontraron plantillas con la información proporcionada</v>
       </c>
       <c r="G96" t="s">
@@ -6445,7 +5902,7 @@
         <v>141</v>
       </c>
       <c r="B97" s="5">
-        <f>Status!B97</f>
+        <f>[1]Status!B97</f>
         <v>430</v>
       </c>
       <c r="C97" t="s">
@@ -6458,7 +5915,7 @@
         <v>122</v>
       </c>
       <c r="F97" t="str">
-        <f>Status!C97</f>
+        <f>[1]Status!C97</f>
         <v>El objeto no tiene los datos necesarios para agregarlo a una plantilla</v>
       </c>
       <c r="G97" t="s">
@@ -6470,7 +5927,7 @@
         <v>141</v>
       </c>
       <c r="B98" s="5">
-        <f>Status!B98</f>
+        <f>[1]Status!B98</f>
         <v>431</v>
       </c>
       <c r="C98" t="s">
@@ -6483,7 +5940,7 @@
         <v>122</v>
       </c>
       <c r="F98" t="str">
-        <f>Status!C98</f>
+        <f>[1]Status!C98</f>
         <v>Error al ejecutar la plantilla</v>
       </c>
       <c r="G98" t="s">
@@ -6495,7 +5952,7 @@
         <v>141</v>
       </c>
       <c r="B99" s="5">
-        <f>Status!B99</f>
+        <f>[1]Status!B99</f>
         <v>432</v>
       </c>
       <c r="C99" t="s">
@@ -6508,7 +5965,7 @@
         <v>122</v>
       </c>
       <c r="F99" t="str">
-        <f>Status!C99</f>
+        <f>[1]Status!C99</f>
         <v>No se tiene la información necesaria para eliminar la plantilla</v>
       </c>
       <c r="G99" t="s">
@@ -6520,7 +5977,7 @@
         <v>141</v>
       </c>
       <c r="B100" s="5">
-        <f>Status!B100</f>
+        <f>[1]Status!B100</f>
         <v>433</v>
       </c>
       <c r="C100" t="s">
@@ -6533,7 +5990,7 @@
         <v>122</v>
       </c>
       <c r="F100" t="str">
-        <f>Status!C100</f>
+        <f>[1]Status!C100</f>
         <v>No se tiene la información necesaria para eliminar la carpeta</v>
       </c>
       <c r="G100" t="s">
@@ -6545,7 +6002,7 @@
         <v>141</v>
       </c>
       <c r="B101" s="5">
-        <f>Status!B101</f>
+        <f>[1]Status!B101</f>
         <v>434</v>
       </c>
       <c r="C101" t="s">
@@ -6558,7 +6015,7 @@
         <v>122</v>
       </c>
       <c r="F101" t="str">
-        <f>Status!C101</f>
+        <f>[1]Status!C101</f>
         <v>El objeto no tiene los datos necesarios para eliminarlo de favoritos</v>
       </c>
       <c r="G101" t="s">
@@ -6570,7 +6027,7 @@
         <v>141</v>
       </c>
       <c r="B102" s="5">
-        <f>Status!B102</f>
+        <f>[1]Status!B102</f>
         <v>435</v>
       </c>
       <c r="C102" t="s">
@@ -6583,7 +6040,7 @@
         <v>122</v>
       </c>
       <c r="F102" t="str">
-        <f>Status!C102</f>
+        <f>[1]Status!C102</f>
         <v>No se tiene la información necesaria para mover el documento</v>
       </c>
       <c r="G102" t="s">
@@ -6595,7 +6052,7 @@
         <v>141</v>
       </c>
       <c r="B103" s="5">
-        <f>Status!B103</f>
+        <f>[1]Status!B103</f>
         <v>436</v>
       </c>
       <c r="C103" t="s">
@@ -6608,7 +6065,7 @@
         <v>122</v>
       </c>
       <c r="F103" t="str">
-        <f>Status!C103</f>
+        <f>[1]Status!C103</f>
         <v>No se tiene la información necesaria para copiar el documento</v>
       </c>
       <c r="G103" t="s">
@@ -6620,7 +6077,7 @@
         <v>141</v>
       </c>
       <c r="B104" s="5">
-        <f>Status!B104</f>
+        <f>[1]Status!B104</f>
         <v>437</v>
       </c>
       <c r="C104" t="s">
@@ -6633,7 +6090,7 @@
         <v>122</v>
       </c>
       <c r="F104" t="str">
-        <f>Status!C104</f>
+        <f>[1]Status!C104</f>
         <v>No se tiene la información necesaria para eliminar el documento</v>
       </c>
       <c r="G104" t="s">
@@ -6645,7 +6102,7 @@
         <v>141</v>
       </c>
       <c r="B105" s="5">
-        <f>Status!B105</f>
+        <f>[1]Status!B105</f>
         <v>438</v>
       </c>
       <c r="C105" t="s">
@@ -6658,7 +6115,7 @@
         <v>122</v>
       </c>
       <c r="F105" t="str">
-        <f>Status!C105</f>
+        <f>[1]Status!C105</f>
         <v>No se definió el tipo de descarga del documento</v>
       </c>
       <c r="G105" t="s">
@@ -6670,7 +6127,7 @@
         <v>141</v>
       </c>
       <c r="B106" s="5">
-        <f>Status!B106</f>
+        <f>[1]Status!B106</f>
         <v>439</v>
       </c>
       <c r="C106" t="s">
@@ -6683,7 +6140,7 @@
         <v>122</v>
       </c>
       <c r="F106" t="str">
-        <f>Status!C106</f>
+        <f>[1]Status!C106</f>
         <v>No se tiene la información necesaria para compartir el documento</v>
       </c>
       <c r="G106" t="s">
@@ -6695,7 +6152,7 @@
         <v>141</v>
       </c>
       <c r="B107" s="5">
-        <f>Status!B107</f>
+        <f>[1]Status!B107</f>
         <v>440</v>
       </c>
       <c r="C107" t="s">
@@ -6708,7 +6165,7 @@
         <v>122</v>
       </c>
       <c r="F107" t="str">
-        <f>Status!C107</f>
+        <f>[1]Status!C107</f>
         <v>No se tiene la información necesaria para asignar versión actual al documento</v>
       </c>
       <c r="G107" t="s">
@@ -6720,7 +6177,7 @@
         <v>141</v>
       </c>
       <c r="B108" s="5">
-        <f>Status!B108</f>
+        <f>[1]Status!B108</f>
         <v>441</v>
       </c>
       <c r="C108" t="s">
@@ -6733,7 +6190,7 @@
         <v>122</v>
       </c>
       <c r="F108" t="str">
-        <f>Status!C108</f>
+        <f>[1]Status!C108</f>
         <v>No se tiene la información necesaria para reservar el documento</v>
       </c>
       <c r="G108" t="s">
@@ -6745,7 +6202,7 @@
         <v>141</v>
       </c>
       <c r="B109" s="5">
-        <f>Status!B109</f>
+        <f>[1]Status!B109</f>
         <v>442</v>
       </c>
       <c r="C109" t="s">
@@ -6758,7 +6215,7 @@
         <v>122</v>
       </c>
       <c r="F109" t="str">
-        <f>Status!C109</f>
+        <f>[1]Status!C109</f>
         <v>No se tiene la información necesaria para cancelar la reserva del documento</v>
       </c>
       <c r="G109" t="s">
@@ -6770,7 +6227,7 @@
         <v>141</v>
       </c>
       <c r="B110" s="5">
-        <f>Status!B110</f>
+        <f>[1]Status!B110</f>
         <v>443</v>
       </c>
       <c r="C110" t="s">
@@ -6783,7 +6240,7 @@
         <v>122</v>
       </c>
       <c r="F110" t="str">
-        <f>Status!C110</f>
+        <f>[1]Status!C110</f>
         <v>No se tiene la información necesaria para la  nueva versión del documento</v>
       </c>
       <c r="G110" t="s">
@@ -6795,7 +6252,7 @@
         <v>141</v>
       </c>
       <c r="B111" s="5">
-        <f>Status!B111</f>
+        <f>[1]Status!B111</f>
         <v>444</v>
       </c>
       <c r="C111" t="s">
@@ -6808,7 +6265,7 @@
         <v>122</v>
       </c>
       <c r="F111" t="str">
-        <f>Status!C111</f>
+        <f>[1]Status!C111</f>
         <v>No se tiene la información para actualizar el nombre del objeto</v>
       </c>
       <c r="G111" t="s">
@@ -6820,7 +6277,7 @@
         <v>141</v>
       </c>
       <c r="B112" s="5">
-        <f>Status!B112</f>
+        <f>[1]Status!B112</f>
         <v>445</v>
       </c>
       <c r="C112" t="s">
@@ -6833,7 +6290,7 @@
         <v>122</v>
       </c>
       <c r="F112" t="str">
-        <f>Status!C112</f>
+        <f>[1]Status!C112</f>
         <v>No se tiene la información para actualizar la visibilidad del objeto</v>
       </c>
       <c r="G112" t="s">
@@ -6845,7 +6302,7 @@
         <v>141</v>
       </c>
       <c r="B113" s="5">
-        <f>Status!B113</f>
+        <f>[1]Status!B113</f>
         <v>446</v>
       </c>
       <c r="C113" t="s">
@@ -6858,7 +6315,7 @@
         <v>122</v>
       </c>
       <c r="F113" t="str">
-        <f>Status!C113</f>
+        <f>[1]Status!C113</f>
         <v>No se tiene la información necesaria para obtener los dominios</v>
       </c>
       <c r="G113" t="s">
@@ -6870,7 +6327,7 @@
         <v>141</v>
       </c>
       <c r="B114" s="5">
-        <f>Status!B114</f>
+        <f>[1]Status!B114</f>
         <v>447</v>
       </c>
       <c r="C114" t="s">
@@ -6883,7 +6340,7 @@
         <v>122</v>
       </c>
       <c r="F114" t="str">
-        <f>Status!C114</f>
+        <f>[1]Status!C114</f>
         <v>No se tiene la información necesaria para obtener las Storage Area</v>
       </c>
       <c r="G114" t="s">
@@ -6895,7 +6352,7 @@
         <v>141</v>
       </c>
       <c r="B115" s="5">
-        <f>Status!B115</f>
+        <f>[1]Status!B115</f>
         <v>448</v>
       </c>
       <c r="C115" t="s">
@@ -6908,7 +6365,7 @@
         <v>122</v>
       </c>
       <c r="F115" t="str">
-        <f>Status!C115</f>
+        <f>[1]Status!C115</f>
         <v>No se tiene la información necesaria para obtener las Storage Policy</v>
       </c>
       <c r="G115" t="s">
@@ -6920,7 +6377,7 @@
         <v>141</v>
       </c>
       <c r="B116" s="5">
-        <f>Status!B116</f>
+        <f>[1]Status!B116</f>
         <v>449</v>
       </c>
       <c r="C116" t="s">
@@ -6933,7 +6390,7 @@
         <v>122</v>
       </c>
       <c r="F116" t="str">
-        <f>Status!C116</f>
+        <f>[1]Status!C116</f>
         <v>No se tiene la información necesaria para agregar un Sello</v>
       </c>
       <c r="G116" t="s">
@@ -6945,7 +6402,7 @@
         <v>141</v>
       </c>
       <c r="B117" s="5">
-        <f>Status!B117</f>
+        <f>[1]Status!B117</f>
         <v>450</v>
       </c>
       <c r="C117" t="s">
@@ -6958,7 +6415,7 @@
         <v>122</v>
       </c>
       <c r="F117" t="str">
-        <f>Status!C117</f>
+        <f>[1]Status!C117</f>
         <v>No se tiene la información necesaria para obtener un Sello</v>
       </c>
       <c r="G117" t="s">
@@ -6970,7 +6427,7 @@
         <v>141</v>
       </c>
       <c r="B118" s="5">
-        <f>Status!B118</f>
+        <f>[1]Status!B118</f>
         <v>451</v>
       </c>
       <c r="C118" t="s">
@@ -6983,7 +6440,7 @@
         <v>122</v>
       </c>
       <c r="F118" t="str">
-        <f>Status!C118</f>
+        <f>[1]Status!C118</f>
         <v>Error al guardar la información del Sello</v>
       </c>
       <c r="G118" t="s">
@@ -6995,7 +6452,7 @@
         <v>141</v>
       </c>
       <c r="B119" s="5">
-        <f>Status!B119</f>
+        <f>[1]Status!B119</f>
         <v>452</v>
       </c>
       <c r="C119" t="s">
@@ -7008,7 +6465,7 @@
         <v>122</v>
       </c>
       <c r="F119" t="str">
-        <f>Status!C119</f>
+        <f>[1]Status!C119</f>
         <v>No se tiene la información necesaria para eliminar el sello</v>
       </c>
       <c r="G119" t="s">
@@ -7020,7 +6477,7 @@
         <v>141</v>
       </c>
       <c r="B125" s="5">
-        <f>Status!B125</f>
+        <f>[1]Status!B125</f>
         <v>501</v>
       </c>
       <c r="C125" t="s">
@@ -7033,7 +6490,7 @@
         <v>122</v>
       </c>
       <c r="F125" t="str">
-        <f>Status!C125</f>
+        <f>[1]Status!C125</f>
         <v>Error de conexión con la Base de Datos</v>
       </c>
       <c r="G125" t="s">
@@ -7045,7 +6502,7 @@
         <v>141</v>
       </c>
       <c r="B126" s="5">
-        <f>Status!B126</f>
+        <f>[1]Status!B126</f>
         <v>502</v>
       </c>
       <c r="C126" t="s">
@@ -7058,7 +6515,7 @@
         <v>122</v>
       </c>
       <c r="F126" t="str">
-        <f>Status!C126</f>
+        <f>[1]Status!C126</f>
         <v>No se tiene la información completa para generar el query</v>
       </c>
       <c r="G126" t="s">
@@ -7070,7 +6527,7 @@
         <v>141</v>
       </c>
       <c r="B127" s="5">
-        <f>Status!B127</f>
+        <f>[1]Status!B127</f>
         <v>503</v>
       </c>
       <c r="C127" t="s">
@@ -7083,7 +6540,7 @@
         <v>122</v>
       </c>
       <c r="F127" t="str">
-        <f>Status!C127</f>
+        <f>[1]Status!C127</f>
         <v>Error al ejecutar el query</v>
       </c>
       <c r="G127" t="s">
@@ -7095,7 +6552,7 @@
         <v>141</v>
       </c>
       <c r="B128" s="5">
-        <f>Status!B128</f>
+        <f>[1]Status!B128</f>
         <v>504</v>
       </c>
       <c r="C128" t="s">
@@ -7108,7 +6565,7 @@
         <v>122</v>
       </c>
       <c r="F128" t="str">
-        <f>Status!C128</f>
+        <f>[1]Status!C128</f>
         <v>Error al leer el objeto Json en la Base de Datos</v>
       </c>
       <c r="G128" t="s">
@@ -7120,7 +6577,7 @@
         <v>141</v>
       </c>
       <c r="B131" s="5">
-        <f>Status!B131</f>
+        <f>[1]Status!B131</f>
         <v>601</v>
       </c>
       <c r="C131" t="s">
@@ -7133,7 +6590,7 @@
         <v>122</v>
       </c>
       <c r="F131" t="str">
-        <f>Status!C131</f>
+        <f>[1]Status!C131</f>
         <v>Error de conexión con el servidor de Correo Electrónico</v>
       </c>
       <c r="G131" t="s">
@@ -7145,7 +6602,7 @@
         <v>141</v>
       </c>
       <c r="B132" s="5">
-        <f>Status!B132</f>
+        <f>[1]Status!B132</f>
         <v>602</v>
       </c>
       <c r="C132" t="s">
@@ -7158,7 +6615,7 @@
         <v>122</v>
       </c>
       <c r="F132" t="str">
-        <f>Status!C132</f>
+        <f>[1]Status!C132</f>
         <v>Error al enviar un Correo Electrónico</v>
       </c>
       <c r="G132" t="s">
@@ -7170,7 +6627,7 @@
         <v>141</v>
       </c>
       <c r="B135" s="5">
-        <f>Status!B135</f>
+        <f>[1]Status!B135</f>
         <v>701</v>
       </c>
       <c r="C135" t="s">
@@ -7183,7 +6640,7 @@
         <v>122</v>
       </c>
       <c r="F135" t="str">
-        <f>Status!C135</f>
+        <f>[1]Status!C135</f>
         <v>No se encontró información con los datos proporcionados</v>
       </c>
       <c r="G135" t="s">
@@ -7195,7 +6652,7 @@
         <v>141</v>
       </c>
       <c r="B136" s="5">
-        <f>Status!B136</f>
+        <f>[1]Status!B136</f>
         <v>702</v>
       </c>
       <c r="C136" t="s">
@@ -7208,7 +6665,7 @@
         <v>122</v>
       </c>
       <c r="F136" t="str">
-        <f>Status!C136</f>
+        <f>[1]Status!C136</f>
         <v>No se encuentra la información solicitada</v>
       </c>
       <c r="G136" t="s">
@@ -7220,7 +6677,7 @@
         <v>141</v>
       </c>
       <c r="B138" s="5">
-        <f>Status!B138</f>
+        <f>[1]Status!B138</f>
         <v>801</v>
       </c>
       <c r="C138" t="s">
@@ -7233,7 +6690,7 @@
         <v>122</v>
       </c>
       <c r="F138" t="str">
-        <f>Status!C138</f>
+        <f>[1]Status!C138</f>
         <v>No se encontró los parametros de la configuración solicitada</v>
       </c>
       <c r="G138" t="s">
@@ -7245,7 +6702,7 @@
         <v>141</v>
       </c>
       <c r="B139" s="5">
-        <f>Status!B139</f>
+        <f>[1]Status!B139</f>
         <v>802</v>
       </c>
       <c r="C139" t="s">
@@ -7258,7 +6715,7 @@
         <v>122</v>
       </c>
       <c r="F139" t="str">
-        <f>Status!C139</f>
+        <f>[1]Status!C139</f>
         <v>No se pudo cargar la configuración</v>
       </c>
       <c r="G139" t="s">
@@ -7270,7 +6727,7 @@
         <v>141</v>
       </c>
       <c r="B141" s="5">
-        <f>Status!B141</f>
+        <f>[1]Status!B141</f>
         <v>901</v>
       </c>
       <c r="C141" t="s">
@@ -7283,7 +6740,7 @@
         <v>122</v>
       </c>
       <c r="F141" t="str">
-        <f>Status!C141</f>
+        <f>[1]Status!C141</f>
         <v>No se encontró el comentario con los datos proporcionados</v>
       </c>
       <c r="G141" t="s">
@@ -7295,7 +6752,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="5">
-        <f>Status!B142</f>
+        <f>[1]Status!B142</f>
         <v>902</v>
       </c>
       <c r="C142" t="s">
@@ -7308,7 +6765,7 @@
         <v>122</v>
       </c>
       <c r="F142" t="str">
-        <f>Status!C142</f>
+        <f>[1]Status!C142</f>
         <v>El objeto no tiene los datos necesarios para insertarlo</v>
       </c>
       <c r="G142" t="s">
@@ -7320,7 +6777,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="5">
-        <f>Status!B143</f>
+        <f>[1]Status!B143</f>
         <v>903</v>
       </c>
       <c r="C143" t="s">
@@ -7333,7 +6790,7 @@
         <v>122</v>
       </c>
       <c r="F143" t="str">
-        <f>Status!C143</f>
+        <f>[1]Status!C143</f>
         <v>Los componentes sociales sólo pueden ser aplicados a objetos de tipo Document</v>
       </c>
       <c r="G143" t="s">
@@ -7345,7 +6802,7 @@
         <v>141</v>
       </c>
       <c r="B144" s="5">
-        <f>Status!B144</f>
+        <f>[1]Status!B144</f>
         <v>904</v>
       </c>
       <c r="C144" t="s">
@@ -7358,7 +6815,7 @@
         <v>122</v>
       </c>
       <c r="F144" t="str">
-        <f>Status!C144</f>
+        <f>[1]Status!C144</f>
         <v>Error al crear el comentario</v>
       </c>
       <c r="G144" t="s">
@@ -7370,7 +6827,7 @@
         <v>141</v>
       </c>
       <c r="B145" s="5">
-        <f>Status!B145</f>
+        <f>[1]Status!B145</f>
         <v>905</v>
       </c>
       <c r="C145" t="s">
@@ -7383,7 +6840,7 @@
         <v>122</v>
       </c>
       <c r="F145" t="str">
-        <f>Status!C145</f>
+        <f>[1]Status!C145</f>
         <v>Error al consultar los comentarios</v>
       </c>
       <c r="G145" t="s">
@@ -7395,7 +6852,7 @@
         <v>141</v>
       </c>
       <c r="B146" s="5">
-        <f>Status!B146</f>
+        <f>[1]Status!B146</f>
         <v>906</v>
       </c>
       <c r="C146" t="s">
@@ -7408,7 +6865,7 @@
         <v>122</v>
       </c>
       <c r="F146" t="str">
-        <f>Status!C146</f>
+        <f>[1]Status!C146</f>
         <v>No se encontró el like con los datos proporcionados</v>
       </c>
       <c r="G146" t="s">
@@ -7420,7 +6877,7 @@
         <v>141</v>
       </c>
       <c r="B147" s="5">
-        <f>Status!B147</f>
+        <f>[1]Status!B147</f>
         <v>907</v>
       </c>
       <c r="C147" t="s">
@@ -7433,7 +6890,7 @@
         <v>122</v>
       </c>
       <c r="F147" t="str">
-        <f>Status!C147</f>
+        <f>[1]Status!C147</f>
         <v>Error al guardar el Like</v>
       </c>
       <c r="G147" t="s">
@@ -7445,7 +6902,7 @@
         <v>141</v>
       </c>
       <c r="B149" s="5">
-        <f>Status!B149</f>
+        <f>[1]Status!B149</f>
         <v>1001</v>
       </c>
       <c r="C149" t="s">
@@ -7458,7 +6915,7 @@
         <v>122</v>
       </c>
       <c r="F149" t="str">
-        <f>Status!C149</f>
+        <f>[1]Status!C149</f>
         <v>No se encontró el perfil con los datos proporcionados</v>
       </c>
       <c r="G149" t="s">
@@ -7470,7 +6927,7 @@
         <v>141</v>
       </c>
       <c r="B150" s="5">
-        <f>Status!B150</f>
+        <f>[1]Status!B150</f>
         <v>1002</v>
       </c>
       <c r="C150" t="s">
@@ -7483,7 +6940,7 @@
         <v>122</v>
       </c>
       <c r="F150" t="str">
-        <f>Status!C150</f>
+        <f>[1]Status!C150</f>
         <v>El objeto no tiene los datos necesarios para insertarlo</v>
       </c>
       <c r="G150" t="s">
@@ -7495,7 +6952,7 @@
         <v>141</v>
       </c>
       <c r="B151" s="5">
-        <f>Status!B151</f>
+        <f>[1]Status!B151</f>
         <v>1003</v>
       </c>
       <c r="C151" t="s">
@@ -7508,7 +6965,7 @@
         <v>122</v>
       </c>
       <c r="F151" t="str">
-        <f>Status!C151</f>
+        <f>[1]Status!C151</f>
         <v>Error al crear el profile</v>
       </c>
       <c r="G151" t="s">
@@ -7520,7 +6977,7 @@
         <v>141</v>
       </c>
       <c r="B152" s="5">
-        <f>Status!B152</f>
+        <f>[1]Status!B152</f>
         <v>1004</v>
       </c>
       <c r="C152" t="s">
@@ -7533,7 +6990,7 @@
         <v>122</v>
       </c>
       <c r="F152" t="str">
-        <f>Status!C152</f>
+        <f>[1]Status!C152</f>
         <v>Error al consultar los perfiles</v>
       </c>
       <c r="G152" t="s">
@@ -7545,7 +7002,7 @@
         <v>141</v>
       </c>
       <c r="B153" s="5">
-        <f>Status!B153</f>
+        <f>[1]Status!B153</f>
         <v>1005</v>
       </c>
       <c r="C153" t="s">
@@ -7558,7 +7015,7 @@
         <v>122</v>
       </c>
       <c r="F153" t="str">
-        <f>Status!C153</f>
+        <f>[1]Status!C153</f>
         <v>No se puede eliminar el perfil con los datos proporcionados</v>
       </c>
       <c r="G153" t="s">
@@ -7570,7 +7027,7 @@
         <v>141</v>
       </c>
       <c r="B155" s="5">
-        <f>Status!B155</f>
+        <f>[1]Status!B155</f>
         <v>1101</v>
       </c>
       <c r="C155" t="s">
@@ -7583,7 +7040,7 @@
         <v>122</v>
       </c>
       <c r="F155" t="str">
-        <f>Status!C155</f>
+        <f>[1]Status!C155</f>
         <v>No se encontró la página con los datos proporcionados</v>
       </c>
       <c r="G155" t="s">
@@ -7595,7 +7052,7 @@
         <v>141</v>
       </c>
       <c r="B156" s="5">
-        <f>Status!B156</f>
+        <f>[1]Status!B156</f>
         <v>1102</v>
       </c>
       <c r="C156" t="s">
@@ -7608,7 +7065,7 @@
         <v>122</v>
       </c>
       <c r="F156" t="str">
-        <f>Status!C156</f>
+        <f>[1]Status!C156</f>
         <v>El objeto no tiene los datos necesarios para insertarlo</v>
       </c>
       <c r="G156" t="s">
@@ -7620,7 +7077,7 @@
         <v>141</v>
       </c>
       <c r="B157" s="5">
-        <f>Status!B157</f>
+        <f>[1]Status!B157</f>
         <v>1103</v>
       </c>
       <c r="C157" t="s">
@@ -7633,7 +7090,7 @@
         <v>122</v>
       </c>
       <c r="F157" t="str">
-        <f>Status!C157</f>
+        <f>[1]Status!C157</f>
         <v>Error al insertar la página</v>
       </c>
       <c r="G157" t="s">
@@ -7645,7 +7102,7 @@
         <v>141</v>
       </c>
       <c r="B158" s="5">
-        <f>Status!B158</f>
+        <f>[1]Status!B158</f>
         <v>1104</v>
       </c>
       <c r="C158" t="s">
@@ -7658,7 +7115,7 @@
         <v>122</v>
       </c>
       <c r="F158" t="str">
-        <f>Status!C158</f>
+        <f>[1]Status!C158</f>
         <v>Error al insertar el componente</v>
       </c>
       <c r="G158" t="s">
@@ -7670,7 +7127,7 @@
         <v>141</v>
       </c>
       <c r="B159" s="5">
-        <f>Status!B159</f>
+        <f>[1]Status!B159</f>
         <v>1105</v>
       </c>
       <c r="C159" t="s">
@@ -7683,7 +7140,7 @@
         <v>122</v>
       </c>
       <c r="F159" t="str">
-        <f>Status!C159</f>
+        <f>[1]Status!C159</f>
         <v>Error al insertar el perfil de página</v>
       </c>
       <c r="G159" t="s">
@@ -7695,7 +7152,7 @@
         <v>141</v>
       </c>
       <c r="B160" s="5">
-        <f>Status!B160</f>
+        <f>[1]Status!B160</f>
         <v>1106</v>
       </c>
       <c r="C160" t="s">
@@ -7708,7 +7165,7 @@
         <v>122</v>
       </c>
       <c r="F160" t="str">
-        <f>Status!C160</f>
+        <f>[1]Status!C160</f>
         <v>No se encontró el componente con los datos proporcionados</v>
       </c>
       <c r="G160" t="s">
@@ -7720,7 +7177,7 @@
         <v>141</v>
       </c>
       <c r="B161" s="5">
-        <f>Status!B161</f>
+        <f>[1]Status!B161</f>
         <v>1107</v>
       </c>
       <c r="C161" t="s">
@@ -7733,7 +7190,7 @@
         <v>122</v>
       </c>
       <c r="F161" t="str">
-        <f>Status!C161</f>
+        <f>[1]Status!C161</f>
         <v>No se encontró el perfil con los datos proporcionados</v>
       </c>
       <c r="G161" t="s">
@@ -7745,7 +7202,7 @@
         <v>141</v>
       </c>
       <c r="B163" s="5">
-        <f>Status!B163</f>
+        <f>[1]Status!B163</f>
         <v>1201</v>
       </c>
       <c r="C163" t="s">
@@ -7758,7 +7215,7 @@
         <v>122</v>
       </c>
       <c r="F163" t="str">
-        <f>Status!C163</f>
+        <f>[1]Status!C163</f>
         <v>No se encontró la búsqueda almacenada con los datos proporcionados</v>
       </c>
       <c r="G163" t="s">
@@ -7770,7 +7227,7 @@
         <v>141</v>
       </c>
       <c r="B164" s="5">
-        <f>Status!B164</f>
+        <f>[1]Status!B164</f>
         <v>1202</v>
       </c>
       <c r="C164" t="s">
@@ -7783,7 +7240,7 @@
         <v>122</v>
       </c>
       <c r="F164" t="str">
-        <f>Status!C164</f>
+        <f>[1]Status!C164</f>
         <v>El objeto no tiene los datos necesarios para insertarlo</v>
       </c>
       <c r="G164" t="s">
@@ -7795,7 +7252,7 @@
         <v>141</v>
       </c>
       <c r="B165" s="5">
-        <f>Status!B165</f>
+        <f>[1]Status!B165</f>
         <v>1203</v>
       </c>
       <c r="C165" t="s">
@@ -7808,7 +7265,7 @@
         <v>122</v>
       </c>
       <c r="F165" t="str">
-        <f>Status!C165</f>
+        <f>[1]Status!C165</f>
         <v>Error al insertar la búsqueda almacenada</v>
       </c>
       <c r="G165" t="s">
@@ -7820,7 +7277,7 @@
         <v>141</v>
       </c>
       <c r="B166" s="5">
-        <f>Status!B166</f>
+        <f>[1]Status!B166</f>
         <v>1204</v>
       </c>
       <c r="C166" t="s">
@@ -7833,7 +7290,7 @@
         <v>122</v>
       </c>
       <c r="F166" t="str">
-        <f>Status!C166</f>
+        <f>[1]Status!C166</f>
         <v>El objeto no tiene los datos necesarios para ejecutar la búsqueda</v>
       </c>
       <c r="G166" t="s">
@@ -7845,7 +7302,7 @@
         <v>141</v>
       </c>
       <c r="B168" s="5">
-        <f>Status!B168</f>
+        <f>[1]Status!B168</f>
         <v>1301</v>
       </c>
       <c r="C168" t="s">
@@ -7858,7 +7315,7 @@
         <v>122</v>
       </c>
       <c r="F168" t="str">
-        <f>Status!C168</f>
+        <f>[1]Status!C168</f>
         <v>Error al cambiar el tiempo de ejecución del Batch. No se encuentra en el rango permitido</v>
       </c>
       <c r="G168" t="s">
@@ -7870,7 +7327,7 @@
         <v>141</v>
       </c>
       <c r="B169" s="5">
-        <f>Status!B169</f>
+        <f>[1]Status!B169</f>
         <v>1302</v>
       </c>
       <c r="C169" t="s">
@@ -7883,7 +7340,7 @@
         <v>122</v>
       </c>
       <c r="F169" t="str">
-        <f>Status!C169</f>
+        <f>[1]Status!C169</f>
         <v>No se tienen la información necesaria para cambiar el tiempo de ejecución del Batch</v>
       </c>
       <c r="G169" t="s">
@@ -7895,7 +7352,7 @@
         <v>141</v>
       </c>
       <c r="B170" s="5">
-        <f>Status!B170</f>
+        <f>[1]Status!B170</f>
         <v>1303</v>
       </c>
       <c r="C170" t="s">
@@ -7908,7 +7365,7 @@
         <v>122</v>
       </c>
       <c r="F170" t="str">
-        <f>Status!C170</f>
+        <f>[1]Status!C170</f>
         <v>No se tiene la información necesaria para iniciar/detener la ejecución del Batch</v>
       </c>
       <c r="G170" t="s">
@@ -7920,7 +7377,7 @@
         <v>141</v>
       </c>
       <c r="B171" s="5">
-        <f>Status!B171</f>
+        <f>[1]Status!B171</f>
         <v>1304</v>
       </c>
       <c r="C171" t="s">
@@ -7933,7 +7390,7 @@
         <v>122</v>
       </c>
       <c r="F171" t="str">
-        <f>Status!C171</f>
+        <f>[1]Status!C171</f>
         <v>Error al consultar los procesos batch</v>
       </c>
       <c r="G171" t="s">
@@ -7945,7 +7402,7 @@
         <v>141</v>
       </c>
       <c r="B172" s="5">
-        <f>Status!B172</f>
+        <f>[1]Status!B172</f>
         <v>1305</v>
       </c>
       <c r="C172" t="s">
@@ -7958,7 +7415,7 @@
         <v>122</v>
       </c>
       <c r="F172" t="str">
-        <f>Status!C172</f>
+        <f>[1]Status!C172</f>
         <v>No se tiene la información necesaria para insertar un proceso batch</v>
       </c>
       <c r="G172" t="s">
@@ -7970,7 +7427,7 @@
         <v>141</v>
       </c>
       <c r="B173" s="5">
-        <f>Status!B173</f>
+        <f>[1]Status!B173</f>
         <v>1306</v>
       </c>
       <c r="C173" t="s">
@@ -7983,7 +7440,7 @@
         <v>122</v>
       </c>
       <c r="F173" t="str">
-        <f>Status!C173</f>
+        <f>[1]Status!C173</f>
         <v>Error al insertar el proceso batch</v>
       </c>
       <c r="G173" t="s">
@@ -7995,7 +7452,7 @@
         <v>141</v>
       </c>
       <c r="B174" s="5">
-        <f>Status!B174</f>
+        <f>[1]Status!B174</f>
         <v>1307</v>
       </c>
       <c r="C174" t="s">
@@ -8008,7 +7465,7 @@
         <v>122</v>
       </c>
       <c r="F174" t="str">
-        <f>Status!C174</f>
+        <f>[1]Status!C174</f>
         <v>No se tiene la información necesaria para eliminar un proceso batch</v>
       </c>
       <c r="G174" t="s">
@@ -8020,7 +7477,7 @@
         <v>141</v>
       </c>
       <c r="B175" s="5">
-        <f>Status!B175</f>
+        <f>[1]Status!B175</f>
         <v>1308</v>
       </c>
       <c r="C175" t="s">
@@ -8033,7 +7490,7 @@
         <v>122</v>
       </c>
       <c r="F175" t="str">
-        <f>Status!C175</f>
+        <f>[1]Status!C175</f>
         <v>No se tiene la información necesaria para la ejecución del OCR</v>
       </c>
       <c r="G175" t="s">
@@ -8045,7 +7502,7 @@
         <v>141</v>
       </c>
       <c r="B176" s="5">
-        <f>Status!B176</f>
+        <f>[1]Status!B176</f>
         <v>1309</v>
       </c>
       <c r="C176" t="s">
@@ -8058,7 +7515,7 @@
         <v>122</v>
       </c>
       <c r="F176" t="str">
-        <f>Status!C176</f>
+        <f>[1]Status!C176</f>
         <v>No se encontró el archivo OCR</v>
       </c>
       <c r="G176" t="s">
@@ -8070,7 +7527,7 @@
         <v>141</v>
       </c>
       <c r="B177" s="5">
-        <f>Status!B177</f>
+        <f>[1]Status!B177</f>
         <v>1310</v>
       </c>
       <c r="C177" t="s">
@@ -8083,7 +7540,7 @@
         <v>122</v>
       </c>
       <c r="F177" t="str">
-        <f>Status!C177</f>
+        <f>[1]Status!C177</f>
         <v>Error al ejecutar el motor de OCR</v>
       </c>
       <c r="G177" t="s">
@@ -8095,7 +7552,7 @@
         <v>141</v>
       </c>
       <c r="B178" s="5">
-        <f>Status!B178</f>
+        <f>[1]Status!B178</f>
         <v>1311</v>
       </c>
       <c r="C178" t="s">
@@ -8108,7 +7565,7 @@
         <v>122</v>
       </c>
       <c r="F178" t="str">
-        <f>Status!C178</f>
+        <f>[1]Status!C178</f>
         <v>No se tiene la información necesaria para eliminar el OCR de un documento</v>
       </c>
       <c r="G178" t="s">
@@ -8120,7 +7577,7 @@
         <v>141</v>
       </c>
       <c r="B179" s="5">
-        <f>Status!B179</f>
+        <f>[1]Status!B179</f>
         <v>1312</v>
       </c>
       <c r="C179" t="s">
@@ -8133,7 +7590,7 @@
         <v>122</v>
       </c>
       <c r="F179" t="str">
-        <f>Status!C179</f>
+        <f>[1]Status!C179</f>
         <v>No se tiene la información necesaria para procesar una tarea de OCR</v>
       </c>
       <c r="G179" t="s">
@@ -8145,7 +7602,7 @@
         <v>141</v>
       </c>
       <c r="B180" s="5">
-        <f>Status!B180</f>
+        <f>[1]Status!B180</f>
         <v>1313</v>
       </c>
       <c r="C180" t="s">
@@ -8158,7 +7615,7 @@
         <v>122</v>
       </c>
       <c r="F180" t="str">
-        <f>Status!C180</f>
+        <f>[1]Status!C180</f>
         <v>No se tiene la información necesaria para insertar un proceso OCR</v>
       </c>
       <c r="G180" t="s">
@@ -8170,7 +7627,7 @@
         <v>141</v>
       </c>
       <c r="B181" s="5">
-        <f>Status!B181</f>
+        <f>[1]Status!B181</f>
         <v>1314</v>
       </c>
       <c r="C181" t="s">
@@ -8183,7 +7640,7 @@
         <v>122</v>
       </c>
       <c r="F181" t="str">
-        <f>Status!C181</f>
+        <f>[1]Status!C181</f>
         <v>Error al intentar leer el archivo en formato PDF</v>
       </c>
       <c r="G181" t="s">
@@ -8195,7 +7652,7 @@
         <v>141</v>
       </c>
       <c r="B182" s="5">
-        <f>Status!B182</f>
+        <f>[1]Status!B182</f>
         <v>1315</v>
       </c>
       <c r="C182" t="s">
@@ -8208,7 +7665,7 @@
         <v>122</v>
       </c>
       <c r="F182" t="str">
-        <f>Status!C182</f>
+        <f>[1]Status!C182</f>
         <v>Error al guardar el archivo para el reconocimiento del OCR</v>
       </c>
       <c r="G182" t="s">
@@ -8219,4 +7676,1994 @@
   <autoFilter ref="A1:G188" xr:uid="{EEE26B93-D9AE-41F8-A483-3DDADFD30298}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE292C2-544D-42AF-9A7B-40EFA2477813}">
+  <dimension ref="A1:C258"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="5">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="5">
+        <v>101</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>102</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="5">
+        <v>103</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>104</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="5">
+        <v>105</v>
+      </c>
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>106</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="5">
+        <v>107</v>
+      </c>
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="5">
+        <v>108</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="5">
+        <v>109</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="5">
+        <v>110</v>
+      </c>
+      <c r="C25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="5">
+        <v>111</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="5">
+        <v>112</v>
+      </c>
+      <c r="C27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="5">
+        <v>113</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="5">
+        <v>114</v>
+      </c>
+      <c r="C29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="5">
+        <v>115</v>
+      </c>
+      <c r="C30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="5">
+        <v>116</v>
+      </c>
+      <c r="C31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="5">
+        <v>117</v>
+      </c>
+      <c r="C32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="5">
+        <v>118</v>
+      </c>
+      <c r="C33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="5">
+        <v>119</v>
+      </c>
+      <c r="C34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="5">
+        <v>120</v>
+      </c>
+      <c r="C35" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="5">
+        <v>121</v>
+      </c>
+      <c r="C36" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="5">
+        <v>201</v>
+      </c>
+      <c r="C40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="5">
+        <v>202</v>
+      </c>
+      <c r="C41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="5">
+        <v>203</v>
+      </c>
+      <c r="C42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="5">
+        <v>204</v>
+      </c>
+      <c r="C43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="5">
+        <v>205</v>
+      </c>
+      <c r="C44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="5">
+        <v>206</v>
+      </c>
+      <c r="C45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="5">
+        <v>207</v>
+      </c>
+      <c r="C46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="5">
+        <v>208</v>
+      </c>
+      <c r="C47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="5">
+        <v>209</v>
+      </c>
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="5">
+        <v>210</v>
+      </c>
+      <c r="C49" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="5">
+        <v>211</v>
+      </c>
+      <c r="C50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="5">
+        <v>212</v>
+      </c>
+      <c r="C51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="5">
+        <v>213</v>
+      </c>
+      <c r="C52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="5">
+        <v>214</v>
+      </c>
+      <c r="C53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="5">
+        <v>215</v>
+      </c>
+      <c r="C54" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="5">
+        <v>216</v>
+      </c>
+      <c r="C55" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="5"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" s="5">
+        <v>301</v>
+      </c>
+      <c r="C58" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="5">
+        <v>302</v>
+      </c>
+      <c r="C59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="5">
+        <v>303</v>
+      </c>
+      <c r="C60" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="5">
+        <v>304</v>
+      </c>
+      <c r="C61" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="5">
+        <v>305</v>
+      </c>
+      <c r="C62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="5">
+        <v>306</v>
+      </c>
+      <c r="C63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="5">
+        <v>307</v>
+      </c>
+      <c r="C64" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="5">
+        <v>308</v>
+      </c>
+      <c r="C65" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="5"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="5"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="5">
+        <v>401</v>
+      </c>
+      <c r="C68" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="5">
+        <v>402</v>
+      </c>
+      <c r="C69" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="5">
+        <v>403</v>
+      </c>
+      <c r="C70" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="5">
+        <v>404</v>
+      </c>
+      <c r="C71" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="5">
+        <v>405</v>
+      </c>
+      <c r="C72" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="5">
+        <v>406</v>
+      </c>
+      <c r="C73" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B74" s="5">
+        <v>407</v>
+      </c>
+      <c r="C74" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="5">
+        <v>408</v>
+      </c>
+      <c r="C75" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="5">
+        <v>409</v>
+      </c>
+      <c r="C76" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B77" s="5">
+        <v>410</v>
+      </c>
+      <c r="C77" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B78" s="5">
+        <v>411</v>
+      </c>
+      <c r="C78" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="5">
+        <v>412</v>
+      </c>
+      <c r="C79" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="5">
+        <v>413</v>
+      </c>
+      <c r="C80" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="5">
+        <v>414</v>
+      </c>
+      <c r="C81" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="5">
+        <v>415</v>
+      </c>
+      <c r="C82" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="5">
+        <v>416</v>
+      </c>
+      <c r="C83" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="5">
+        <v>417</v>
+      </c>
+      <c r="C84" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="5">
+        <v>418</v>
+      </c>
+      <c r="C85" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="5">
+        <v>419</v>
+      </c>
+      <c r="C86" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="5">
+        <v>420</v>
+      </c>
+      <c r="C87" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="5">
+        <v>421</v>
+      </c>
+      <c r="C88" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="5">
+        <v>422</v>
+      </c>
+      <c r="C89" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90" s="5">
+        <v>423</v>
+      </c>
+      <c r="C90" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="5">
+        <v>424</v>
+      </c>
+      <c r="C91" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="5">
+        <v>425</v>
+      </c>
+      <c r="C92" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="5">
+        <v>426</v>
+      </c>
+      <c r="C93" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="5">
+        <v>427</v>
+      </c>
+      <c r="C94" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="5">
+        <v>428</v>
+      </c>
+      <c r="C95" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96" s="5">
+        <v>429</v>
+      </c>
+      <c r="C96" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97" s="5">
+        <v>430</v>
+      </c>
+      <c r="C97" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" s="5">
+        <v>431</v>
+      </c>
+      <c r="C98" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99" s="5">
+        <v>432</v>
+      </c>
+      <c r="C99" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100" s="5">
+        <v>433</v>
+      </c>
+      <c r="C100" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101" s="5">
+        <v>434</v>
+      </c>
+      <c r="C101" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102" s="5">
+        <v>435</v>
+      </c>
+      <c r="C102" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103" s="5">
+        <v>436</v>
+      </c>
+      <c r="C103" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104" s="5">
+        <v>437</v>
+      </c>
+      <c r="C104" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105" s="5">
+        <v>438</v>
+      </c>
+      <c r="C105" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106" s="5">
+        <v>439</v>
+      </c>
+      <c r="C106" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107" s="5">
+        <v>440</v>
+      </c>
+      <c r="C107" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108" s="5">
+        <v>441</v>
+      </c>
+      <c r="C108" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109" s="5">
+        <v>442</v>
+      </c>
+      <c r="C109" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B110" s="5">
+        <v>443</v>
+      </c>
+      <c r="C110" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B111" s="5">
+        <v>444</v>
+      </c>
+      <c r="C111" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B112" s="5">
+        <v>445</v>
+      </c>
+      <c r="C112" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B113" s="5">
+        <v>446</v>
+      </c>
+      <c r="C113" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B114" s="5">
+        <v>447</v>
+      </c>
+      <c r="C114" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B115" s="5">
+        <v>448</v>
+      </c>
+      <c r="C115" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B116" s="5">
+        <v>449</v>
+      </c>
+      <c r="C116" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B117" s="5">
+        <v>450</v>
+      </c>
+      <c r="C117" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B118" s="5">
+        <v>451</v>
+      </c>
+      <c r="C118" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B119" s="5">
+        <v>452</v>
+      </c>
+      <c r="C119" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B120" s="5"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B121" s="5"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B122" s="5"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B123" s="5"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B124" s="5"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>132</v>
+      </c>
+      <c r="B125" s="5">
+        <v>501</v>
+      </c>
+      <c r="C125" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B126" s="5">
+        <v>502</v>
+      </c>
+      <c r="C126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B127" s="5">
+        <v>503</v>
+      </c>
+      <c r="C127" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B128" s="5">
+        <v>504</v>
+      </c>
+      <c r="C128" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B129" s="5"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B130" s="5"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>133</v>
+      </c>
+      <c r="B131" s="5">
+        <v>601</v>
+      </c>
+      <c r="C131" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B132" s="5">
+        <v>602</v>
+      </c>
+      <c r="C132" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B133" s="5">
+        <v>603</v>
+      </c>
+      <c r="C133" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B134" s="5"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" s="5">
+        <v>701</v>
+      </c>
+      <c r="C135" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B136" s="5">
+        <v>702</v>
+      </c>
+      <c r="C136" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B137" s="5"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" s="5">
+        <v>801</v>
+      </c>
+      <c r="C138" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B139" s="5">
+        <v>802</v>
+      </c>
+      <c r="C139" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B140" s="5"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>164</v>
+      </c>
+      <c r="B141" s="5">
+        <v>901</v>
+      </c>
+      <c r="C141" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B142" s="5">
+        <v>902</v>
+      </c>
+      <c r="C142" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B143" s="5">
+        <v>903</v>
+      </c>
+      <c r="C143" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B144" s="5">
+        <v>904</v>
+      </c>
+      <c r="C144" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B145" s="5">
+        <v>905</v>
+      </c>
+      <c r="C145" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B146" s="5">
+        <v>906</v>
+      </c>
+      <c r="C146" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B147" s="5">
+        <v>907</v>
+      </c>
+      <c r="C147" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B148" s="5"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>173</v>
+      </c>
+      <c r="B149" s="5">
+        <v>1001</v>
+      </c>
+      <c r="C149" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B150" s="5">
+        <v>1002</v>
+      </c>
+      <c r="C150" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B151" s="5">
+        <v>1003</v>
+      </c>
+      <c r="C151" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B152" s="5">
+        <v>1004</v>
+      </c>
+      <c r="C152" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B153" s="5">
+        <v>1005</v>
+      </c>
+      <c r="C153" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B154" s="5"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>178</v>
+      </c>
+      <c r="B155" s="5">
+        <v>1101</v>
+      </c>
+      <c r="C155" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B156" s="5">
+        <v>1102</v>
+      </c>
+      <c r="C156" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B157" s="5">
+        <v>1103</v>
+      </c>
+      <c r="C157" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B158" s="5">
+        <v>1104</v>
+      </c>
+      <c r="C158" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B159" s="5">
+        <v>1105</v>
+      </c>
+      <c r="C159" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B160" s="5">
+        <v>1106</v>
+      </c>
+      <c r="C160" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B161" s="5">
+        <v>1107</v>
+      </c>
+      <c r="C161" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B162" s="5"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>184</v>
+      </c>
+      <c r="B163" s="5">
+        <v>1201</v>
+      </c>
+      <c r="C163" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B164" s="5">
+        <v>1202</v>
+      </c>
+      <c r="C164" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B165" s="5">
+        <v>1203</v>
+      </c>
+      <c r="C165" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B166" s="5">
+        <v>1204</v>
+      </c>
+      <c r="C166" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B167" s="5"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>219</v>
+      </c>
+      <c r="B168" s="5">
+        <v>1301</v>
+      </c>
+      <c r="C168" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B169" s="5">
+        <v>1302</v>
+      </c>
+      <c r="C169" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B170" s="5">
+        <v>1303</v>
+      </c>
+      <c r="C170" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B171" s="5">
+        <v>1304</v>
+      </c>
+      <c r="C171" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B172" s="5">
+        <v>1305</v>
+      </c>
+      <c r="C172" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B173" s="5">
+        <v>1306</v>
+      </c>
+      <c r="C173" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B174" s="5">
+        <v>1307</v>
+      </c>
+      <c r="C174" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B175" s="5">
+        <v>1308</v>
+      </c>
+      <c r="C175" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B176" s="5">
+        <v>1309</v>
+      </c>
+      <c r="C176" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B177" s="5">
+        <v>1310</v>
+      </c>
+      <c r="C177" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B178" s="5">
+        <v>1311</v>
+      </c>
+      <c r="C178" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B179" s="5">
+        <v>1312</v>
+      </c>
+      <c r="C179" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B180" s="5">
+        <v>1313</v>
+      </c>
+      <c r="C180" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B181" s="5">
+        <v>1314</v>
+      </c>
+      <c r="C181" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B182" s="5">
+        <v>1315</v>
+      </c>
+      <c r="C182" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B183" s="5"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>283</v>
+      </c>
+      <c r="B184" s="5">
+        <v>1401</v>
+      </c>
+      <c r="C184" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B185" s="5">
+        <v>1402</v>
+      </c>
+      <c r="C185" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B186" s="5">
+        <v>1403</v>
+      </c>
+      <c r="C186" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B187" s="5">
+        <v>1404</v>
+      </c>
+      <c r="C187" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B188" s="5">
+        <v>1405</v>
+      </c>
+      <c r="C188" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B189" s="5">
+        <v>1406</v>
+      </c>
+      <c r="C189" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B190" s="5">
+        <v>1407</v>
+      </c>
+      <c r="C190" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B191" s="5">
+        <v>1408</v>
+      </c>
+      <c r="C191" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B192" s="5">
+        <v>1409</v>
+      </c>
+      <c r="C192" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B193" s="5">
+        <v>1410</v>
+      </c>
+      <c r="C193" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B194" s="5">
+        <v>1411</v>
+      </c>
+      <c r="C194" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B195" s="5">
+        <v>1412</v>
+      </c>
+      <c r="C195" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B196" s="5">
+        <v>1413</v>
+      </c>
+      <c r="C196" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B197" s="5">
+        <v>1414</v>
+      </c>
+      <c r="C197" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B198" s="5">
+        <v>1415</v>
+      </c>
+      <c r="C198" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B199" s="5">
+        <v>1416</v>
+      </c>
+      <c r="C199" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B200" s="5">
+        <v>1417</v>
+      </c>
+      <c r="C200" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B201" s="5">
+        <v>1418</v>
+      </c>
+      <c r="C201" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B202" s="5">
+        <v>1419</v>
+      </c>
+      <c r="C202" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B203" s="5">
+        <v>1420</v>
+      </c>
+      <c r="C203" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B204" s="5">
+        <v>1421</v>
+      </c>
+      <c r="C204" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B205" s="5">
+        <v>1422</v>
+      </c>
+      <c r="C205" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B206" s="5">
+        <v>1423</v>
+      </c>
+      <c r="C206" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B207" s="5">
+        <v>1424</v>
+      </c>
+      <c r="C207" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B208" s="5">
+        <v>1425</v>
+      </c>
+      <c r="C208" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B209" s="5">
+        <v>1426</v>
+      </c>
+      <c r="C209" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B210" s="5">
+        <v>1427</v>
+      </c>
+      <c r="C210" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B211" s="5">
+        <v>1428</v>
+      </c>
+      <c r="C211" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B212" s="5">
+        <v>1429</v>
+      </c>
+      <c r="C212" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B213" s="5">
+        <v>1430</v>
+      </c>
+      <c r="C213" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B214" s="5">
+        <v>1431</v>
+      </c>
+      <c r="C214" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B215" s="5">
+        <v>1432</v>
+      </c>
+      <c r="C215" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B216" s="5">
+        <v>1433</v>
+      </c>
+      <c r="C216" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B217" s="5"/>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>316</v>
+      </c>
+      <c r="B218" s="5">
+        <v>1501</v>
+      </c>
+      <c r="C218" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B219" s="5">
+        <v>1502</v>
+      </c>
+      <c r="C219" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B220" s="5">
+        <v>1503</v>
+      </c>
+      <c r="C220" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B221" s="5">
+        <v>1504</v>
+      </c>
+      <c r="C221" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B222" s="5">
+        <v>1505</v>
+      </c>
+      <c r="C222" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B223" s="5">
+        <v>1506</v>
+      </c>
+      <c r="C223" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B224" s="5">
+        <v>1507</v>
+      </c>
+      <c r="C224" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B225" s="5">
+        <v>1508</v>
+      </c>
+      <c r="C225" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B226" s="5">
+        <v>1509</v>
+      </c>
+      <c r="C226" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B227" s="5">
+        <v>1510</v>
+      </c>
+      <c r="C227" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B228" s="5">
+        <v>1511</v>
+      </c>
+      <c r="C228" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B229" s="5">
+        <v>1512</v>
+      </c>
+      <c r="C229" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B230" s="5"/>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B231" s="5"/>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B232" s="5"/>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B233" s="5"/>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>326</v>
+      </c>
+      <c r="B234" s="5">
+        <v>1600</v>
+      </c>
+      <c r="C234" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B235" s="5">
+        <v>1601</v>
+      </c>
+      <c r="C235" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B236" s="5">
+        <v>1602</v>
+      </c>
+      <c r="C236" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B237" s="5">
+        <v>1603</v>
+      </c>
+      <c r="C237" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B238" s="5">
+        <v>1604</v>
+      </c>
+      <c r="C238" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B239" s="5">
+        <v>1605</v>
+      </c>
+      <c r="C239" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B240" s="5">
+        <v>1606</v>
+      </c>
+      <c r="C240" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B241" s="5">
+        <v>1607</v>
+      </c>
+      <c r="C241" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B242" s="5">
+        <v>1608</v>
+      </c>
+      <c r="C242" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B243" s="5">
+        <v>1609</v>
+      </c>
+      <c r="C243" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B244" s="5">
+        <v>1610</v>
+      </c>
+      <c r="C244" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B245" s="5">
+        <v>1611</v>
+      </c>
+      <c r="C245" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B246" s="5">
+        <v>1612</v>
+      </c>
+      <c r="C246" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B247" s="5">
+        <v>1613</v>
+      </c>
+      <c r="C247" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B248" s="5">
+        <v>1614</v>
+      </c>
+      <c r="C248" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B249" s="5">
+        <v>1615</v>
+      </c>
+      <c r="C249" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B250" s="5">
+        <v>1616</v>
+      </c>
+      <c r="C250" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B251" s="5">
+        <v>1617</v>
+      </c>
+      <c r="C251" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B252" s="5">
+        <v>1618</v>
+      </c>
+      <c r="C252" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B253" s="5">
+        <v>1619</v>
+      </c>
+      <c r="C253" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B254" s="5">
+        <v>1620</v>
+      </c>
+      <c r="C254" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B255" s="5">
+        <v>1621</v>
+      </c>
+      <c r="C255" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B256" s="5">
+        <v>1622</v>
+      </c>
+      <c r="C256" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B257" s="5">
+        <v>1623</v>
+      </c>
+      <c r="C257" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B258" s="5">
+        <v>1624</v>
+      </c>
+      <c r="C258" t="s">
+        <v>353</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>